--- a/product-definitions/spreadsheet/co-concentration.xlsx
+++ b/product-definitions/spreadsheet/co-concentration.xlsx
@@ -12,14 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -38,12 +44,6 @@
     <t>mole_fraction_of_carbon_monoxide_in_air</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?
-</t>
   </si>
   <si>
     <t>1
@@ -67,11 +63,19 @@
 1e-12</t>
   </si>
   <si>
-    <t>1
-1e-3 (parts_per_thousand, mmol mole
-1e-6 (ppm, micromole mole-1)
-1e-9 (ppb, nmole mole-1)
-1e-12 (ppt, pmole mole-1)</t>
+    <t>Units must be given</t>
+  </si>
+  <si>
+    <t>practical_units</t>
+  </si>
+  <si>
+    <t>mmol mol-1
+micro mol mol-1
+nmol mol-1
+pmol mol-1</t>
+  </si>
+  <si>
+    <t>Practical_units must be given and must match units multiplier</t>
   </si>
   <si>
     <t>standard_name</t>
@@ -80,7 +84,7 @@
     <t>long_name</t>
   </si>
   <si>
-    <t>Mole fraction of Carbon Monoxide in ambient air</t>
+    <t>Mole Fraction of Carbon Monoxide in air</t>
   </si>
   <si>
     <t>_FillValue</t>
@@ -89,7 +93,7 @@
     <t>valid_min</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;derived from file&gt;</t>
+    <t>&lt;derived from file&gt;</t>
   </si>
   <si>
     <t>valid_max</t>
@@ -98,18 +102,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
-  </si>
-  <si>
-    <t>mean or point</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -122,6 +115,35 @@
   </si>
   <si>
     <t>CO</t>
+  </si>
+  <si>
+    <t>mass_fraction_of_carbon_monoxide_in_air</t>
+  </si>
+  <si>
+    <t>ppm
+ppb
+ppt</t>
+  </si>
+  <si>
+    <t>Mass Fraction of Carbon Monoxide in air</t>
+  </si>
+  <si>
+    <t>mole_concentration_of_carbon_monoxide_in_air</t>
+  </si>
+  <si>
+    <t>mol m-3</t>
+  </si>
+  <si>
+    <t>Mole Concentration of Carbon Monoxide in air</t>
+  </si>
+  <si>
+    <t>mass_concentration_of_carbon_monoxide_in_air</t>
+  </si>
+  <si>
+    <t>kg m-3</t>
+  </si>
+  <si>
+    <t>Mass Concentration of Carbon Monoxide in air</t>
   </si>
   <si>
     <t>qc_flag</t>
@@ -152,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -168,32 +190,34 @@
       <b/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <bottom/>
-    </border>
     <border>
       <right/>
     </border>
@@ -201,10 +225,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -214,54 +242,86 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,125 +357,125 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -432,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="1" max="1" width="28.57"/>
     <col customWidth="1" min="2" max="2" width="17.86"/>
     <col customWidth="1" min="3" max="3" width="26.71"/>
     <col customWidth="1" min="4" max="5" width="17.43"/>
@@ -442,3144 +502,3613 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="G20" s="7"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="C21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" ht="12.0" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="16">
         <v>-1.0E20</v>
       </c>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7"/>
+      <c r="B28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="C36" s="16">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="7"/>
+      <c r="B41" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10" t="s">
+      <c r="C49" s="16">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="C51" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="7"/>
+      <c r="B52" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="18" t="s">
+      <c r="C53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="7"/>
+      <c r="B54" s="27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="C54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="22"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="C57" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C58" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9">
+    <row r="59">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="22">
         <v>1.0</v>
       </c>
     </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41">
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44">
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48">
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49">
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52">
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53">
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54">
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55">
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56">
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57">
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59">
-      <c r="C59" s="7"/>
-    </row>
     <row r="60">
-      <c r="C60" s="7"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="22"/>
     </row>
     <row r="61">
-      <c r="C61" s="7"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="62">
-      <c r="C62" s="7"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="63">
-      <c r="C63" s="7"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64">
-      <c r="C64" s="7"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65">
-      <c r="C65" s="7"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66">
-      <c r="C66" s="7"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67">
-      <c r="C67" s="7"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68">
-      <c r="C68" s="7"/>
+      <c r="C68" s="18"/>
     </row>
     <row r="69">
-      <c r="C69" s="7"/>
+      <c r="C69" s="18"/>
     </row>
     <row r="70">
-      <c r="C70" s="7"/>
+      <c r="C70" s="18"/>
     </row>
     <row r="71">
-      <c r="C71" s="7"/>
+      <c r="C71" s="18"/>
     </row>
     <row r="72">
-      <c r="C72" s="7"/>
+      <c r="C72" s="18"/>
     </row>
     <row r="73">
-      <c r="C73" s="7"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74">
-      <c r="C74" s="7"/>
+      <c r="C74" s="18"/>
     </row>
     <row r="75">
-      <c r="C75" s="7"/>
+      <c r="C75" s="18"/>
     </row>
     <row r="76">
-      <c r="C76" s="7"/>
+      <c r="C76" s="18"/>
     </row>
     <row r="77">
-      <c r="C77" s="7"/>
+      <c r="C77" s="18"/>
     </row>
     <row r="78">
-      <c r="C78" s="7"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79">
-      <c r="C79" s="7"/>
+      <c r="C79" s="18"/>
     </row>
     <row r="80">
-      <c r="C80" s="7"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81">
-      <c r="C81" s="7"/>
+      <c r="C81" s="18"/>
     </row>
     <row r="82">
-      <c r="C82" s="7"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83">
-      <c r="C83" s="7"/>
+      <c r="C83" s="18"/>
     </row>
     <row r="84">
-      <c r="C84" s="7"/>
+      <c r="C84" s="18"/>
     </row>
     <row r="85">
-      <c r="C85" s="7"/>
+      <c r="C85" s="18"/>
     </row>
     <row r="86">
-      <c r="C86" s="7"/>
+      <c r="C86" s="18"/>
     </row>
     <row r="87">
-      <c r="C87" s="7"/>
+      <c r="C87" s="18"/>
     </row>
     <row r="88">
-      <c r="C88" s="7"/>
+      <c r="C88" s="18"/>
     </row>
     <row r="89">
-      <c r="C89" s="7"/>
+      <c r="C89" s="18"/>
     </row>
     <row r="90">
-      <c r="C90" s="7"/>
+      <c r="C90" s="18"/>
     </row>
     <row r="91">
-      <c r="C91" s="7"/>
+      <c r="C91" s="18"/>
     </row>
     <row r="92">
-      <c r="C92" s="7"/>
+      <c r="C92" s="18"/>
     </row>
     <row r="93">
-      <c r="C93" s="7"/>
+      <c r="C93" s="18"/>
     </row>
     <row r="94">
-      <c r="C94" s="7"/>
+      <c r="C94" s="18"/>
     </row>
     <row r="95">
-      <c r="C95" s="7"/>
+      <c r="C95" s="18"/>
     </row>
     <row r="96">
-      <c r="C96" s="7"/>
+      <c r="C96" s="18"/>
     </row>
     <row r="97">
-      <c r="C97" s="7"/>
+      <c r="C97" s="18"/>
     </row>
     <row r="98">
-      <c r="C98" s="7"/>
+      <c r="C98" s="18"/>
     </row>
     <row r="99">
-      <c r="C99" s="7"/>
+      <c r="C99" s="18"/>
     </row>
     <row r="100">
-      <c r="C100" s="7"/>
+      <c r="C100" s="18"/>
     </row>
     <row r="101">
-      <c r="C101" s="7"/>
+      <c r="C101" s="18"/>
     </row>
     <row r="102">
-      <c r="C102" s="7"/>
+      <c r="C102" s="18"/>
     </row>
     <row r="103">
-      <c r="C103" s="7"/>
+      <c r="C103" s="18"/>
     </row>
     <row r="104">
-      <c r="C104" s="7"/>
+      <c r="C104" s="18"/>
     </row>
     <row r="105">
-      <c r="C105" s="7"/>
+      <c r="C105" s="18"/>
     </row>
     <row r="106">
-      <c r="C106" s="7"/>
+      <c r="C106" s="18"/>
     </row>
     <row r="107">
-      <c r="C107" s="7"/>
+      <c r="C107" s="18"/>
     </row>
     <row r="108">
-      <c r="C108" s="7"/>
+      <c r="C108" s="18"/>
     </row>
     <row r="109">
-      <c r="C109" s="7"/>
+      <c r="C109" s="18"/>
     </row>
     <row r="110">
-      <c r="C110" s="7"/>
+      <c r="C110" s="18"/>
     </row>
     <row r="111">
-      <c r="C111" s="7"/>
+      <c r="C111" s="18"/>
     </row>
     <row r="112">
-      <c r="C112" s="7"/>
+      <c r="C112" s="18"/>
     </row>
     <row r="113">
-      <c r="C113" s="7"/>
+      <c r="C113" s="18"/>
     </row>
     <row r="114">
-      <c r="C114" s="7"/>
+      <c r="C114" s="18"/>
     </row>
     <row r="115">
-      <c r="C115" s="7"/>
+      <c r="C115" s="18"/>
     </row>
     <row r="116">
-      <c r="C116" s="7"/>
+      <c r="C116" s="18"/>
     </row>
     <row r="117">
-      <c r="C117" s="7"/>
+      <c r="C117" s="18"/>
     </row>
     <row r="118">
-      <c r="C118" s="7"/>
+      <c r="C118" s="18"/>
     </row>
     <row r="119">
-      <c r="C119" s="7"/>
+      <c r="C119" s="18"/>
     </row>
     <row r="120">
-      <c r="C120" s="7"/>
+      <c r="C120" s="18"/>
     </row>
     <row r="121">
-      <c r="C121" s="7"/>
+      <c r="C121" s="18"/>
     </row>
     <row r="122">
-      <c r="C122" s="7"/>
+      <c r="C122" s="18"/>
     </row>
     <row r="123">
-      <c r="C123" s="7"/>
+      <c r="C123" s="18"/>
     </row>
     <row r="124">
-      <c r="C124" s="7"/>
+      <c r="C124" s="18"/>
     </row>
     <row r="125">
-      <c r="C125" s="7"/>
+      <c r="C125" s="18"/>
     </row>
     <row r="126">
-      <c r="C126" s="7"/>
+      <c r="C126" s="18"/>
     </row>
     <row r="127">
-      <c r="C127" s="7"/>
+      <c r="C127" s="18"/>
     </row>
     <row r="128">
-      <c r="C128" s="7"/>
+      <c r="C128" s="18"/>
     </row>
     <row r="129">
-      <c r="C129" s="7"/>
+      <c r="C129" s="18"/>
     </row>
     <row r="130">
-      <c r="C130" s="7"/>
+      <c r="C130" s="18"/>
     </row>
     <row r="131">
-      <c r="C131" s="7"/>
+      <c r="C131" s="18"/>
     </row>
     <row r="132">
-      <c r="C132" s="7"/>
+      <c r="C132" s="18"/>
     </row>
     <row r="133">
-      <c r="C133" s="7"/>
+      <c r="C133" s="18"/>
     </row>
     <row r="134">
-      <c r="C134" s="7"/>
+      <c r="C134" s="18"/>
     </row>
     <row r="135">
-      <c r="C135" s="7"/>
+      <c r="C135" s="18"/>
     </row>
     <row r="136">
-      <c r="C136" s="7"/>
+      <c r="C136" s="18"/>
     </row>
     <row r="137">
-      <c r="C137" s="7"/>
+      <c r="C137" s="18"/>
     </row>
     <row r="138">
-      <c r="C138" s="7"/>
+      <c r="C138" s="18"/>
     </row>
     <row r="139">
-      <c r="C139" s="7"/>
+      <c r="C139" s="18"/>
     </row>
     <row r="140">
-      <c r="C140" s="7"/>
+      <c r="C140" s="18"/>
     </row>
     <row r="141">
-      <c r="C141" s="7"/>
+      <c r="C141" s="18"/>
     </row>
     <row r="142">
-      <c r="C142" s="7"/>
+      <c r="C142" s="18"/>
     </row>
     <row r="143">
-      <c r="C143" s="7"/>
+      <c r="C143" s="18"/>
     </row>
     <row r="144">
-      <c r="C144" s="7"/>
+      <c r="C144" s="18"/>
     </row>
     <row r="145">
-      <c r="C145" s="7"/>
+      <c r="C145" s="18"/>
     </row>
     <row r="146">
-      <c r="C146" s="7"/>
+      <c r="C146" s="18"/>
     </row>
     <row r="147">
-      <c r="C147" s="7"/>
+      <c r="C147" s="18"/>
     </row>
     <row r="148">
-      <c r="C148" s="7"/>
+      <c r="C148" s="18"/>
     </row>
     <row r="149">
-      <c r="C149" s="7"/>
+      <c r="C149" s="18"/>
     </row>
     <row r="150">
-      <c r="C150" s="7"/>
+      <c r="C150" s="18"/>
     </row>
     <row r="151">
-      <c r="C151" s="7"/>
+      <c r="C151" s="18"/>
     </row>
     <row r="152">
-      <c r="C152" s="7"/>
+      <c r="C152" s="18"/>
     </row>
     <row r="153">
-      <c r="C153" s="7"/>
+      <c r="C153" s="18"/>
     </row>
     <row r="154">
-      <c r="C154" s="7"/>
+      <c r="C154" s="18"/>
     </row>
     <row r="155">
-      <c r="C155" s="7"/>
+      <c r="C155" s="18"/>
     </row>
     <row r="156">
-      <c r="C156" s="7"/>
+      <c r="C156" s="18"/>
     </row>
     <row r="157">
-      <c r="C157" s="7"/>
+      <c r="C157" s="18"/>
     </row>
     <row r="158">
-      <c r="C158" s="7"/>
+      <c r="C158" s="18"/>
     </row>
     <row r="159">
-      <c r="C159" s="7"/>
+      <c r="C159" s="18"/>
     </row>
     <row r="160">
-      <c r="C160" s="7"/>
+      <c r="C160" s="18"/>
     </row>
     <row r="161">
-      <c r="C161" s="7"/>
+      <c r="C161" s="18"/>
     </row>
     <row r="162">
-      <c r="C162" s="7"/>
+      <c r="C162" s="18"/>
     </row>
     <row r="163">
-      <c r="C163" s="7"/>
+      <c r="C163" s="18"/>
     </row>
     <row r="164">
-      <c r="C164" s="7"/>
+      <c r="C164" s="18"/>
     </row>
     <row r="165">
-      <c r="C165" s="7"/>
+      <c r="C165" s="18"/>
     </row>
     <row r="166">
-      <c r="C166" s="7"/>
+      <c r="C166" s="18"/>
     </row>
     <row r="167">
-      <c r="C167" s="7"/>
+      <c r="C167" s="18"/>
     </row>
     <row r="168">
-      <c r="C168" s="7"/>
+      <c r="C168" s="18"/>
     </row>
     <row r="169">
-      <c r="C169" s="7"/>
+      <c r="C169" s="18"/>
     </row>
     <row r="170">
-      <c r="C170" s="7"/>
+      <c r="C170" s="18"/>
     </row>
     <row r="171">
-      <c r="C171" s="7"/>
+      <c r="C171" s="18"/>
     </row>
     <row r="172">
-      <c r="C172" s="7"/>
+      <c r="C172" s="18"/>
     </row>
     <row r="173">
-      <c r="C173" s="7"/>
+      <c r="C173" s="18"/>
     </row>
     <row r="174">
-      <c r="C174" s="7"/>
+      <c r="C174" s="18"/>
     </row>
     <row r="175">
-      <c r="C175" s="7"/>
+      <c r="C175" s="18"/>
     </row>
     <row r="176">
-      <c r="C176" s="7"/>
+      <c r="C176" s="18"/>
     </row>
     <row r="177">
-      <c r="C177" s="7"/>
+      <c r="C177" s="18"/>
     </row>
     <row r="178">
-      <c r="C178" s="7"/>
+      <c r="C178" s="18"/>
     </row>
     <row r="179">
-      <c r="C179" s="7"/>
+      <c r="C179" s="18"/>
     </row>
     <row r="180">
-      <c r="C180" s="7"/>
+      <c r="C180" s="18"/>
     </row>
     <row r="181">
-      <c r="C181" s="7"/>
+      <c r="C181" s="18"/>
     </row>
     <row r="182">
-      <c r="C182" s="7"/>
+      <c r="C182" s="18"/>
     </row>
     <row r="183">
-      <c r="C183" s="7"/>
+      <c r="C183" s="18"/>
     </row>
     <row r="184">
-      <c r="C184" s="7"/>
+      <c r="C184" s="18"/>
     </row>
     <row r="185">
-      <c r="C185" s="7"/>
+      <c r="C185" s="18"/>
     </row>
     <row r="186">
-      <c r="C186" s="7"/>
+      <c r="C186" s="18"/>
     </row>
     <row r="187">
-      <c r="C187" s="7"/>
+      <c r="C187" s="18"/>
     </row>
     <row r="188">
-      <c r="C188" s="7"/>
+      <c r="C188" s="18"/>
     </row>
     <row r="189">
-      <c r="C189" s="7"/>
+      <c r="C189" s="18"/>
     </row>
     <row r="190">
-      <c r="C190" s="7"/>
+      <c r="C190" s="18"/>
     </row>
     <row r="191">
-      <c r="C191" s="7"/>
+      <c r="C191" s="18"/>
     </row>
     <row r="192">
-      <c r="C192" s="7"/>
+      <c r="C192" s="18"/>
     </row>
     <row r="193">
-      <c r="C193" s="7"/>
+      <c r="C193" s="18"/>
     </row>
     <row r="194">
-      <c r="C194" s="7"/>
+      <c r="C194" s="18"/>
     </row>
     <row r="195">
-      <c r="C195" s="7"/>
+      <c r="C195" s="18"/>
     </row>
     <row r="196">
-      <c r="C196" s="7"/>
+      <c r="C196" s="18"/>
     </row>
     <row r="197">
-      <c r="C197" s="7"/>
+      <c r="C197" s="18"/>
     </row>
     <row r="198">
-      <c r="C198" s="7"/>
+      <c r="C198" s="18"/>
     </row>
     <row r="199">
-      <c r="C199" s="7"/>
+      <c r="C199" s="18"/>
     </row>
     <row r="200">
-      <c r="C200" s="7"/>
+      <c r="C200" s="18"/>
     </row>
     <row r="201">
-      <c r="C201" s="7"/>
+      <c r="C201" s="18"/>
     </row>
     <row r="202">
-      <c r="C202" s="7"/>
+      <c r="C202" s="18"/>
     </row>
     <row r="203">
-      <c r="C203" s="7"/>
+      <c r="C203" s="18"/>
     </row>
     <row r="204">
-      <c r="C204" s="7"/>
+      <c r="C204" s="18"/>
     </row>
     <row r="205">
-      <c r="C205" s="7"/>
+      <c r="C205" s="18"/>
     </row>
     <row r="206">
-      <c r="C206" s="7"/>
+      <c r="C206" s="18"/>
     </row>
     <row r="207">
-      <c r="C207" s="7"/>
+      <c r="C207" s="18"/>
     </row>
     <row r="208">
-      <c r="C208" s="7"/>
+      <c r="C208" s="18"/>
     </row>
     <row r="209">
-      <c r="C209" s="7"/>
+      <c r="C209" s="18"/>
     </row>
     <row r="210">
-      <c r="C210" s="7"/>
+      <c r="C210" s="18"/>
     </row>
     <row r="211">
-      <c r="C211" s="7"/>
+      <c r="C211" s="18"/>
     </row>
     <row r="212">
-      <c r="C212" s="7"/>
+      <c r="C212" s="18"/>
     </row>
     <row r="213">
-      <c r="C213" s="7"/>
+      <c r="C213" s="18"/>
     </row>
     <row r="214">
-      <c r="C214" s="7"/>
+      <c r="C214" s="18"/>
     </row>
     <row r="215">
-      <c r="C215" s="7"/>
+      <c r="C215" s="18"/>
     </row>
     <row r="216">
-      <c r="C216" s="7"/>
+      <c r="C216" s="18"/>
     </row>
     <row r="217">
-      <c r="C217" s="7"/>
+      <c r="C217" s="18"/>
     </row>
     <row r="218">
-      <c r="C218" s="7"/>
+      <c r="C218" s="18"/>
     </row>
     <row r="219">
-      <c r="C219" s="7"/>
+      <c r="C219" s="18"/>
     </row>
     <row r="220">
-      <c r="C220" s="7"/>
+      <c r="C220" s="18"/>
     </row>
     <row r="221">
-      <c r="C221" s="7"/>
+      <c r="C221" s="18"/>
     </row>
     <row r="222">
-      <c r="C222" s="7"/>
+      <c r="C222" s="18"/>
     </row>
     <row r="223">
-      <c r="C223" s="7"/>
+      <c r="C223" s="18"/>
     </row>
     <row r="224">
-      <c r="C224" s="7"/>
+      <c r="C224" s="18"/>
     </row>
     <row r="225">
-      <c r="C225" s="7"/>
+      <c r="C225" s="18"/>
     </row>
     <row r="226">
-      <c r="C226" s="7"/>
+      <c r="C226" s="18"/>
     </row>
     <row r="227">
-      <c r="C227" s="7"/>
+      <c r="C227" s="18"/>
     </row>
     <row r="228">
-      <c r="C228" s="7"/>
+      <c r="C228" s="18"/>
     </row>
     <row r="229">
-      <c r="C229" s="7"/>
+      <c r="C229" s="18"/>
     </row>
     <row r="230">
-      <c r="C230" s="7"/>
+      <c r="C230" s="18"/>
     </row>
     <row r="231">
-      <c r="C231" s="7"/>
+      <c r="C231" s="18"/>
     </row>
     <row r="232">
-      <c r="C232" s="7"/>
+      <c r="C232" s="18"/>
     </row>
     <row r="233">
-      <c r="C233" s="7"/>
+      <c r="C233" s="18"/>
     </row>
     <row r="234">
-      <c r="C234" s="7"/>
+      <c r="C234" s="18"/>
     </row>
     <row r="235">
-      <c r="C235" s="7"/>
+      <c r="C235" s="18"/>
     </row>
     <row r="236">
-      <c r="C236" s="7"/>
+      <c r="C236" s="18"/>
     </row>
     <row r="237">
-      <c r="C237" s="7"/>
+      <c r="C237" s="18"/>
     </row>
     <row r="238">
-      <c r="C238" s="7"/>
+      <c r="C238" s="18"/>
     </row>
     <row r="239">
-      <c r="C239" s="7"/>
+      <c r="C239" s="18"/>
     </row>
     <row r="240">
-      <c r="C240" s="7"/>
+      <c r="C240" s="18"/>
     </row>
     <row r="241">
-      <c r="C241" s="7"/>
+      <c r="C241" s="18"/>
     </row>
     <row r="242">
-      <c r="C242" s="7"/>
+      <c r="C242" s="18"/>
     </row>
     <row r="243">
-      <c r="C243" s="7"/>
+      <c r="C243" s="18"/>
     </row>
     <row r="244">
-      <c r="C244" s="7"/>
+      <c r="C244" s="18"/>
     </row>
     <row r="245">
-      <c r="C245" s="7"/>
+      <c r="C245" s="18"/>
     </row>
     <row r="246">
-      <c r="C246" s="7"/>
+      <c r="C246" s="18"/>
     </row>
     <row r="247">
-      <c r="C247" s="7"/>
+      <c r="C247" s="18"/>
     </row>
     <row r="248">
-      <c r="C248" s="7"/>
+      <c r="C248" s="18"/>
     </row>
     <row r="249">
-      <c r="C249" s="7"/>
+      <c r="C249" s="18"/>
     </row>
     <row r="250">
-      <c r="C250" s="7"/>
+      <c r="C250" s="18"/>
     </row>
     <row r="251">
-      <c r="C251" s="7"/>
+      <c r="C251" s="18"/>
     </row>
     <row r="252">
-      <c r="C252" s="7"/>
+      <c r="C252" s="18"/>
     </row>
     <row r="253">
-      <c r="C253" s="7"/>
+      <c r="C253" s="18"/>
     </row>
     <row r="254">
-      <c r="C254" s="7"/>
+      <c r="C254" s="18"/>
     </row>
     <row r="255">
-      <c r="C255" s="7"/>
+      <c r="C255" s="18"/>
     </row>
     <row r="256">
-      <c r="C256" s="7"/>
+      <c r="C256" s="18"/>
     </row>
     <row r="257">
-      <c r="C257" s="7"/>
+      <c r="C257" s="18"/>
     </row>
     <row r="258">
-      <c r="C258" s="7"/>
+      <c r="C258" s="18"/>
     </row>
     <row r="259">
-      <c r="C259" s="7"/>
+      <c r="C259" s="18"/>
     </row>
     <row r="260">
-      <c r="C260" s="7"/>
+      <c r="C260" s="18"/>
     </row>
     <row r="261">
-      <c r="C261" s="7"/>
+      <c r="C261" s="18"/>
     </row>
     <row r="262">
-      <c r="C262" s="7"/>
+      <c r="C262" s="18"/>
     </row>
     <row r="263">
-      <c r="C263" s="7"/>
+      <c r="C263" s="18"/>
     </row>
     <row r="264">
-      <c r="C264" s="7"/>
+      <c r="C264" s="18"/>
     </row>
     <row r="265">
-      <c r="C265" s="7"/>
+      <c r="C265" s="18"/>
     </row>
     <row r="266">
-      <c r="C266" s="7"/>
+      <c r="C266" s="18"/>
     </row>
     <row r="267">
-      <c r="C267" s="7"/>
+      <c r="C267" s="18"/>
     </row>
     <row r="268">
-      <c r="C268" s="7"/>
+      <c r="C268" s="18"/>
     </row>
     <row r="269">
-      <c r="C269" s="7"/>
+      <c r="C269" s="18"/>
     </row>
     <row r="270">
-      <c r="C270" s="7"/>
+      <c r="C270" s="18"/>
     </row>
     <row r="271">
-      <c r="C271" s="7"/>
+      <c r="C271" s="18"/>
     </row>
     <row r="272">
-      <c r="C272" s="7"/>
+      <c r="C272" s="18"/>
     </row>
     <row r="273">
-      <c r="C273" s="7"/>
+      <c r="C273" s="18"/>
     </row>
     <row r="274">
-      <c r="C274" s="7"/>
+      <c r="C274" s="18"/>
     </row>
     <row r="275">
-      <c r="C275" s="7"/>
+      <c r="C275" s="18"/>
     </row>
     <row r="276">
-      <c r="C276" s="7"/>
+      <c r="C276" s="18"/>
     </row>
     <row r="277">
-      <c r="C277" s="7"/>
+      <c r="C277" s="18"/>
     </row>
     <row r="278">
-      <c r="C278" s="7"/>
+      <c r="C278" s="18"/>
     </row>
     <row r="279">
-      <c r="C279" s="7"/>
+      <c r="C279" s="18"/>
     </row>
     <row r="280">
-      <c r="C280" s="7"/>
+      <c r="C280" s="18"/>
     </row>
     <row r="281">
-      <c r="C281" s="7"/>
+      <c r="C281" s="18"/>
     </row>
     <row r="282">
-      <c r="C282" s="7"/>
+      <c r="C282" s="18"/>
     </row>
     <row r="283">
-      <c r="C283" s="7"/>
+      <c r="C283" s="18"/>
     </row>
     <row r="284">
-      <c r="C284" s="7"/>
+      <c r="C284" s="18"/>
     </row>
     <row r="285">
-      <c r="C285" s="7"/>
+      <c r="C285" s="18"/>
     </row>
     <row r="286">
-      <c r="C286" s="7"/>
+      <c r="C286" s="18"/>
     </row>
     <row r="287">
-      <c r="C287" s="7"/>
+      <c r="C287" s="18"/>
     </row>
     <row r="288">
-      <c r="C288" s="7"/>
+      <c r="C288" s="18"/>
     </row>
     <row r="289">
-      <c r="C289" s="7"/>
+      <c r="C289" s="18"/>
     </row>
     <row r="290">
-      <c r="C290" s="7"/>
+      <c r="C290" s="18"/>
     </row>
     <row r="291">
-      <c r="C291" s="7"/>
+      <c r="C291" s="18"/>
     </row>
     <row r="292">
-      <c r="C292" s="7"/>
+      <c r="C292" s="18"/>
     </row>
     <row r="293">
-      <c r="C293" s="7"/>
+      <c r="C293" s="18"/>
     </row>
     <row r="294">
-      <c r="C294" s="7"/>
+      <c r="C294" s="18"/>
     </row>
     <row r="295">
-      <c r="C295" s="7"/>
+      <c r="C295" s="18"/>
     </row>
     <row r="296">
-      <c r="C296" s="7"/>
+      <c r="C296" s="18"/>
     </row>
     <row r="297">
-      <c r="C297" s="7"/>
+      <c r="C297" s="18"/>
     </row>
     <row r="298">
-      <c r="C298" s="7"/>
+      <c r="C298" s="18"/>
     </row>
     <row r="299">
-      <c r="C299" s="7"/>
+      <c r="C299" s="18"/>
     </row>
     <row r="300">
-      <c r="C300" s="7"/>
+      <c r="C300" s="18"/>
     </row>
     <row r="301">
-      <c r="C301" s="7"/>
+      <c r="C301" s="18"/>
     </row>
     <row r="302">
-      <c r="C302" s="7"/>
+      <c r="C302" s="18"/>
     </row>
     <row r="303">
-      <c r="C303" s="7"/>
+      <c r="C303" s="18"/>
     </row>
     <row r="304">
-      <c r="C304" s="7"/>
+      <c r="C304" s="18"/>
     </row>
     <row r="305">
-      <c r="C305" s="7"/>
+      <c r="C305" s="18"/>
     </row>
     <row r="306">
-      <c r="C306" s="7"/>
+      <c r="C306" s="18"/>
     </row>
     <row r="307">
-      <c r="C307" s="7"/>
+      <c r="C307" s="18"/>
     </row>
     <row r="308">
-      <c r="C308" s="7"/>
+      <c r="C308" s="18"/>
     </row>
     <row r="309">
-      <c r="C309" s="7"/>
+      <c r="C309" s="18"/>
     </row>
     <row r="310">
-      <c r="C310" s="7"/>
+      <c r="C310" s="18"/>
     </row>
     <row r="311">
-      <c r="C311" s="7"/>
+      <c r="C311" s="18"/>
     </row>
     <row r="312">
-      <c r="C312" s="7"/>
+      <c r="C312" s="18"/>
     </row>
     <row r="313">
-      <c r="C313" s="7"/>
+      <c r="C313" s="18"/>
     </row>
     <row r="314">
-      <c r="C314" s="7"/>
+      <c r="C314" s="18"/>
     </row>
     <row r="315">
-      <c r="C315" s="7"/>
+      <c r="C315" s="18"/>
     </row>
     <row r="316">
-      <c r="C316" s="7"/>
+      <c r="C316" s="18"/>
     </row>
     <row r="317">
-      <c r="C317" s="7"/>
+      <c r="C317" s="18"/>
     </row>
     <row r="318">
-      <c r="C318" s="7"/>
+      <c r="C318" s="18"/>
     </row>
     <row r="319">
-      <c r="C319" s="7"/>
+      <c r="C319" s="18"/>
     </row>
     <row r="320">
-      <c r="C320" s="7"/>
+      <c r="C320" s="18"/>
     </row>
     <row r="321">
-      <c r="C321" s="7"/>
+      <c r="C321" s="18"/>
     </row>
     <row r="322">
-      <c r="C322" s="7"/>
+      <c r="C322" s="18"/>
     </row>
     <row r="323">
-      <c r="C323" s="7"/>
+      <c r="C323" s="18"/>
     </row>
     <row r="324">
-      <c r="C324" s="7"/>
+      <c r="C324" s="18"/>
     </row>
     <row r="325">
-      <c r="C325" s="7"/>
+      <c r="C325" s="18"/>
     </row>
     <row r="326">
-      <c r="C326" s="7"/>
+      <c r="C326" s="18"/>
     </row>
     <row r="327">
-      <c r="C327" s="7"/>
+      <c r="C327" s="18"/>
     </row>
     <row r="328">
-      <c r="C328" s="7"/>
+      <c r="C328" s="18"/>
     </row>
     <row r="329">
-      <c r="C329" s="7"/>
+      <c r="C329" s="18"/>
     </row>
     <row r="330">
-      <c r="C330" s="7"/>
+      <c r="C330" s="18"/>
     </row>
     <row r="331">
-      <c r="C331" s="7"/>
+      <c r="C331" s="18"/>
     </row>
     <row r="332">
-      <c r="C332" s="7"/>
+      <c r="C332" s="18"/>
     </row>
     <row r="333">
-      <c r="C333" s="7"/>
+      <c r="C333" s="18"/>
     </row>
     <row r="334">
-      <c r="C334" s="7"/>
+      <c r="C334" s="18"/>
     </row>
     <row r="335">
-      <c r="C335" s="7"/>
+      <c r="C335" s="18"/>
     </row>
     <row r="336">
-      <c r="C336" s="7"/>
+      <c r="C336" s="18"/>
     </row>
     <row r="337">
-      <c r="C337" s="7"/>
+      <c r="C337" s="18"/>
     </row>
     <row r="338">
-      <c r="C338" s="7"/>
+      <c r="C338" s="18"/>
     </row>
     <row r="339">
-      <c r="C339" s="7"/>
+      <c r="C339" s="18"/>
     </row>
     <row r="340">
-      <c r="C340" s="7"/>
+      <c r="C340" s="18"/>
     </row>
     <row r="341">
-      <c r="C341" s="7"/>
+      <c r="C341" s="18"/>
     </row>
     <row r="342">
-      <c r="C342" s="7"/>
+      <c r="C342" s="18"/>
     </row>
     <row r="343">
-      <c r="C343" s="7"/>
+      <c r="C343" s="18"/>
     </row>
     <row r="344">
-      <c r="C344" s="7"/>
+      <c r="C344" s="18"/>
     </row>
     <row r="345">
-      <c r="C345" s="7"/>
+      <c r="C345" s="18"/>
     </row>
     <row r="346">
-      <c r="C346" s="7"/>
+      <c r="C346" s="18"/>
     </row>
     <row r="347">
-      <c r="C347" s="7"/>
+      <c r="C347" s="18"/>
     </row>
     <row r="348">
-      <c r="C348" s="7"/>
+      <c r="C348" s="18"/>
     </row>
     <row r="349">
-      <c r="C349" s="7"/>
+      <c r="C349" s="18"/>
     </row>
     <row r="350">
-      <c r="C350" s="7"/>
+      <c r="C350" s="18"/>
     </row>
     <row r="351">
-      <c r="C351" s="7"/>
+      <c r="C351" s="18"/>
     </row>
     <row r="352">
-      <c r="C352" s="7"/>
+      <c r="C352" s="18"/>
     </row>
     <row r="353">
-      <c r="C353" s="7"/>
+      <c r="C353" s="18"/>
     </row>
     <row r="354">
-      <c r="C354" s="7"/>
+      <c r="C354" s="18"/>
     </row>
     <row r="355">
-      <c r="C355" s="7"/>
+      <c r="C355" s="18"/>
     </row>
     <row r="356">
-      <c r="C356" s="7"/>
+      <c r="C356" s="18"/>
     </row>
     <row r="357">
-      <c r="C357" s="7"/>
+      <c r="C357" s="18"/>
     </row>
     <row r="358">
-      <c r="C358" s="7"/>
+      <c r="C358" s="18"/>
     </row>
     <row r="359">
-      <c r="C359" s="7"/>
+      <c r="C359" s="18"/>
     </row>
     <row r="360">
-      <c r="C360" s="7"/>
+      <c r="C360" s="18"/>
     </row>
     <row r="361">
-      <c r="C361" s="7"/>
+      <c r="C361" s="18"/>
     </row>
     <row r="362">
-      <c r="C362" s="7"/>
+      <c r="C362" s="18"/>
     </row>
     <row r="363">
-      <c r="C363" s="7"/>
+      <c r="C363" s="18"/>
     </row>
     <row r="364">
-      <c r="C364" s="7"/>
+      <c r="C364" s="18"/>
     </row>
     <row r="365">
-      <c r="C365" s="7"/>
+      <c r="C365" s="18"/>
     </row>
     <row r="366">
-      <c r="C366" s="7"/>
+      <c r="C366" s="18"/>
     </row>
     <row r="367">
-      <c r="C367" s="7"/>
+      <c r="C367" s="18"/>
     </row>
     <row r="368">
-      <c r="C368" s="7"/>
+      <c r="C368" s="18"/>
     </row>
     <row r="369">
-      <c r="C369" s="7"/>
+      <c r="C369" s="18"/>
     </row>
     <row r="370">
-      <c r="C370" s="7"/>
+      <c r="C370" s="18"/>
     </row>
     <row r="371">
-      <c r="C371" s="7"/>
+      <c r="C371" s="18"/>
     </row>
     <row r="372">
-      <c r="C372" s="7"/>
+      <c r="C372" s="18"/>
     </row>
     <row r="373">
-      <c r="C373" s="7"/>
+      <c r="C373" s="18"/>
     </row>
     <row r="374">
-      <c r="C374" s="7"/>
+      <c r="C374" s="18"/>
     </row>
     <row r="375">
-      <c r="C375" s="7"/>
+      <c r="C375" s="18"/>
     </row>
     <row r="376">
-      <c r="C376" s="7"/>
+      <c r="C376" s="18"/>
     </row>
     <row r="377">
-      <c r="C377" s="7"/>
+      <c r="C377" s="18"/>
     </row>
     <row r="378">
-      <c r="C378" s="7"/>
+      <c r="C378" s="18"/>
     </row>
     <row r="379">
-      <c r="C379" s="7"/>
+      <c r="C379" s="18"/>
     </row>
     <row r="380">
-      <c r="C380" s="7"/>
+      <c r="C380" s="18"/>
     </row>
     <row r="381">
-      <c r="C381" s="7"/>
+      <c r="C381" s="18"/>
     </row>
     <row r="382">
-      <c r="C382" s="7"/>
+      <c r="C382" s="18"/>
     </row>
     <row r="383">
-      <c r="C383" s="7"/>
+      <c r="C383" s="18"/>
     </row>
     <row r="384">
-      <c r="C384" s="7"/>
+      <c r="C384" s="18"/>
     </row>
     <row r="385">
-      <c r="C385" s="7"/>
+      <c r="C385" s="18"/>
     </row>
     <row r="386">
-      <c r="C386" s="7"/>
+      <c r="C386" s="18"/>
     </row>
     <row r="387">
-      <c r="C387" s="7"/>
+      <c r="C387" s="18"/>
     </row>
     <row r="388">
-      <c r="C388" s="7"/>
+      <c r="C388" s="18"/>
     </row>
     <row r="389">
-      <c r="C389" s="7"/>
+      <c r="C389" s="18"/>
     </row>
     <row r="390">
-      <c r="C390" s="7"/>
+      <c r="C390" s="18"/>
     </row>
     <row r="391">
-      <c r="C391" s="7"/>
+      <c r="C391" s="18"/>
     </row>
     <row r="392">
-      <c r="C392" s="7"/>
+      <c r="C392" s="18"/>
     </row>
     <row r="393">
-      <c r="C393" s="7"/>
+      <c r="C393" s="18"/>
     </row>
     <row r="394">
-      <c r="C394" s="7"/>
+      <c r="C394" s="18"/>
     </row>
     <row r="395">
-      <c r="C395" s="7"/>
+      <c r="C395" s="18"/>
     </row>
     <row r="396">
-      <c r="C396" s="7"/>
+      <c r="C396" s="18"/>
     </row>
     <row r="397">
-      <c r="C397" s="7"/>
+      <c r="C397" s="18"/>
     </row>
     <row r="398">
-      <c r="C398" s="7"/>
+      <c r="C398" s="18"/>
     </row>
     <row r="399">
-      <c r="C399" s="7"/>
+      <c r="C399" s="18"/>
     </row>
     <row r="400">
-      <c r="C400" s="7"/>
+      <c r="C400" s="18"/>
     </row>
     <row r="401">
-      <c r="C401" s="7"/>
+      <c r="C401" s="18"/>
     </row>
     <row r="402">
-      <c r="C402" s="7"/>
+      <c r="C402" s="18"/>
     </row>
     <row r="403">
-      <c r="C403" s="7"/>
+      <c r="C403" s="18"/>
     </row>
     <row r="404">
-      <c r="C404" s="7"/>
+      <c r="C404" s="18"/>
     </row>
     <row r="405">
-      <c r="C405" s="7"/>
+      <c r="C405" s="18"/>
     </row>
     <row r="406">
-      <c r="C406" s="7"/>
+      <c r="C406" s="18"/>
     </row>
     <row r="407">
-      <c r="C407" s="7"/>
+      <c r="C407" s="18"/>
     </row>
     <row r="408">
-      <c r="C408" s="7"/>
+      <c r="C408" s="18"/>
     </row>
     <row r="409">
-      <c r="C409" s="7"/>
+      <c r="C409" s="18"/>
     </row>
     <row r="410">
-      <c r="C410" s="7"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411">
-      <c r="C411" s="7"/>
+      <c r="C411" s="18"/>
     </row>
     <row r="412">
-      <c r="C412" s="7"/>
+      <c r="C412" s="18"/>
     </row>
     <row r="413">
-      <c r="C413" s="7"/>
+      <c r="C413" s="18"/>
     </row>
     <row r="414">
-      <c r="C414" s="7"/>
+      <c r="C414" s="18"/>
     </row>
     <row r="415">
-      <c r="C415" s="7"/>
+      <c r="C415" s="18"/>
     </row>
     <row r="416">
-      <c r="C416" s="7"/>
+      <c r="C416" s="18"/>
     </row>
     <row r="417">
-      <c r="C417" s="7"/>
+      <c r="C417" s="18"/>
     </row>
     <row r="418">
-      <c r="C418" s="7"/>
+      <c r="C418" s="18"/>
     </row>
     <row r="419">
-      <c r="C419" s="7"/>
+      <c r="C419" s="18"/>
     </row>
     <row r="420">
-      <c r="C420" s="7"/>
+      <c r="C420" s="18"/>
     </row>
     <row r="421">
-      <c r="C421" s="7"/>
+      <c r="C421" s="18"/>
     </row>
     <row r="422">
-      <c r="C422" s="7"/>
+      <c r="C422" s="18"/>
     </row>
     <row r="423">
-      <c r="C423" s="7"/>
+      <c r="C423" s="18"/>
     </row>
     <row r="424">
-      <c r="C424" s="7"/>
+      <c r="C424" s="18"/>
     </row>
     <row r="425">
-      <c r="C425" s="7"/>
+      <c r="C425" s="18"/>
     </row>
     <row r="426">
-      <c r="C426" s="7"/>
+      <c r="C426" s="18"/>
     </row>
     <row r="427">
-      <c r="C427" s="7"/>
+      <c r="C427" s="18"/>
     </row>
     <row r="428">
-      <c r="C428" s="7"/>
+      <c r="C428" s="18"/>
     </row>
     <row r="429">
-      <c r="C429" s="7"/>
+      <c r="C429" s="18"/>
     </row>
     <row r="430">
-      <c r="C430" s="7"/>
+      <c r="C430" s="18"/>
     </row>
     <row r="431">
-      <c r="C431" s="7"/>
+      <c r="C431" s="18"/>
     </row>
     <row r="432">
-      <c r="C432" s="7"/>
+      <c r="C432" s="18"/>
     </row>
     <row r="433">
-      <c r="C433" s="7"/>
+      <c r="C433" s="18"/>
     </row>
     <row r="434">
-      <c r="C434" s="7"/>
+      <c r="C434" s="18"/>
     </row>
     <row r="435">
-      <c r="C435" s="7"/>
+      <c r="C435" s="18"/>
     </row>
     <row r="436">
-      <c r="C436" s="7"/>
+      <c r="C436" s="18"/>
     </row>
     <row r="437">
-      <c r="C437" s="7"/>
+      <c r="C437" s="18"/>
     </row>
     <row r="438">
-      <c r="C438" s="7"/>
+      <c r="C438" s="18"/>
     </row>
     <row r="439">
-      <c r="C439" s="7"/>
+      <c r="C439" s="18"/>
     </row>
     <row r="440">
-      <c r="C440" s="7"/>
+      <c r="C440" s="18"/>
     </row>
     <row r="441">
-      <c r="C441" s="7"/>
+      <c r="C441" s="18"/>
     </row>
     <row r="442">
-      <c r="C442" s="7"/>
+      <c r="C442" s="18"/>
     </row>
     <row r="443">
-      <c r="C443" s="7"/>
+      <c r="C443" s="18"/>
     </row>
     <row r="444">
-      <c r="C444" s="7"/>
+      <c r="C444" s="18"/>
     </row>
     <row r="445">
-      <c r="C445" s="7"/>
+      <c r="C445" s="18"/>
     </row>
     <row r="446">
-      <c r="C446" s="7"/>
+      <c r="C446" s="18"/>
     </row>
     <row r="447">
-      <c r="C447" s="7"/>
+      <c r="C447" s="18"/>
     </row>
     <row r="448">
-      <c r="C448" s="7"/>
+      <c r="C448" s="18"/>
     </row>
     <row r="449">
-      <c r="C449" s="7"/>
+      <c r="C449" s="18"/>
     </row>
     <row r="450">
-      <c r="C450" s="7"/>
+      <c r="C450" s="18"/>
     </row>
     <row r="451">
-      <c r="C451" s="7"/>
+      <c r="C451" s="18"/>
     </row>
     <row r="452">
-      <c r="C452" s="7"/>
+      <c r="C452" s="18"/>
     </row>
     <row r="453">
-      <c r="C453" s="7"/>
+      <c r="C453" s="18"/>
     </row>
     <row r="454">
-      <c r="C454" s="7"/>
+      <c r="C454" s="18"/>
     </row>
     <row r="455">
-      <c r="C455" s="7"/>
+      <c r="C455" s="18"/>
     </row>
     <row r="456">
-      <c r="C456" s="7"/>
+      <c r="C456" s="18"/>
     </row>
     <row r="457">
-      <c r="C457" s="7"/>
+      <c r="C457" s="18"/>
     </row>
     <row r="458">
-      <c r="C458" s="7"/>
+      <c r="C458" s="18"/>
     </row>
     <row r="459">
-      <c r="C459" s="7"/>
+      <c r="C459" s="18"/>
     </row>
     <row r="460">
-      <c r="C460" s="7"/>
+      <c r="C460" s="18"/>
     </row>
     <row r="461">
-      <c r="C461" s="7"/>
+      <c r="C461" s="18"/>
     </row>
     <row r="462">
-      <c r="C462" s="7"/>
+      <c r="C462" s="18"/>
     </row>
     <row r="463">
-      <c r="C463" s="7"/>
+      <c r="C463" s="18"/>
     </row>
     <row r="464">
-      <c r="C464" s="7"/>
+      <c r="C464" s="18"/>
     </row>
     <row r="465">
-      <c r="C465" s="7"/>
+      <c r="C465" s="18"/>
     </row>
     <row r="466">
-      <c r="C466" s="7"/>
+      <c r="C466" s="18"/>
     </row>
     <row r="467">
-      <c r="C467" s="7"/>
+      <c r="C467" s="18"/>
     </row>
     <row r="468">
-      <c r="C468" s="7"/>
+      <c r="C468" s="18"/>
     </row>
     <row r="469">
-      <c r="C469" s="7"/>
+      <c r="C469" s="18"/>
     </row>
     <row r="470">
-      <c r="C470" s="7"/>
+      <c r="C470" s="18"/>
     </row>
     <row r="471">
-      <c r="C471" s="7"/>
+      <c r="C471" s="18"/>
     </row>
     <row r="472">
-      <c r="C472" s="7"/>
+      <c r="C472" s="18"/>
     </row>
     <row r="473">
-      <c r="C473" s="7"/>
+      <c r="C473" s="18"/>
     </row>
     <row r="474">
-      <c r="C474" s="7"/>
+      <c r="C474" s="18"/>
     </row>
     <row r="475">
-      <c r="C475" s="7"/>
+      <c r="C475" s="18"/>
     </row>
     <row r="476">
-      <c r="C476" s="7"/>
+      <c r="C476" s="18"/>
     </row>
     <row r="477">
-      <c r="C477" s="7"/>
+      <c r="C477" s="18"/>
     </row>
     <row r="478">
-      <c r="C478" s="7"/>
+      <c r="C478" s="18"/>
     </row>
     <row r="479">
-      <c r="C479" s="7"/>
+      <c r="C479" s="18"/>
     </row>
     <row r="480">
-      <c r="C480" s="7"/>
+      <c r="C480" s="18"/>
     </row>
     <row r="481">
-      <c r="C481" s="7"/>
+      <c r="C481" s="18"/>
     </row>
     <row r="482">
-      <c r="C482" s="7"/>
+      <c r="C482" s="18"/>
     </row>
     <row r="483">
-      <c r="C483" s="7"/>
+      <c r="C483" s="18"/>
     </row>
     <row r="484">
-      <c r="C484" s="7"/>
+      <c r="C484" s="18"/>
     </row>
     <row r="485">
-      <c r="C485" s="7"/>
+      <c r="C485" s="18"/>
     </row>
     <row r="486">
-      <c r="C486" s="7"/>
+      <c r="C486" s="18"/>
     </row>
     <row r="487">
-      <c r="C487" s="7"/>
+      <c r="C487" s="18"/>
     </row>
     <row r="488">
-      <c r="C488" s="7"/>
+      <c r="C488" s="18"/>
     </row>
     <row r="489">
-      <c r="C489" s="7"/>
+      <c r="C489" s="18"/>
     </row>
     <row r="490">
-      <c r="C490" s="7"/>
+      <c r="C490" s="18"/>
     </row>
     <row r="491">
-      <c r="C491" s="7"/>
+      <c r="C491" s="18"/>
     </row>
     <row r="492">
-      <c r="C492" s="7"/>
+      <c r="C492" s="18"/>
     </row>
     <row r="493">
-      <c r="C493" s="7"/>
+      <c r="C493" s="18"/>
     </row>
     <row r="494">
-      <c r="C494" s="7"/>
+      <c r="C494" s="18"/>
     </row>
     <row r="495">
-      <c r="C495" s="7"/>
+      <c r="C495" s="18"/>
     </row>
     <row r="496">
-      <c r="C496" s="7"/>
+      <c r="C496" s="18"/>
     </row>
     <row r="497">
-      <c r="C497" s="7"/>
+      <c r="C497" s="18"/>
     </row>
     <row r="498">
-      <c r="C498" s="7"/>
+      <c r="C498" s="18"/>
     </row>
     <row r="499">
-      <c r="C499" s="7"/>
+      <c r="C499" s="18"/>
     </row>
     <row r="500">
-      <c r="C500" s="7"/>
+      <c r="C500" s="18"/>
     </row>
     <row r="501">
-      <c r="C501" s="7"/>
+      <c r="C501" s="18"/>
     </row>
     <row r="502">
-      <c r="C502" s="7"/>
+      <c r="C502" s="18"/>
     </row>
     <row r="503">
-      <c r="C503" s="7"/>
+      <c r="C503" s="18"/>
     </row>
     <row r="504">
-      <c r="C504" s="7"/>
+      <c r="C504" s="18"/>
     </row>
     <row r="505">
-      <c r="C505" s="7"/>
+      <c r="C505" s="18"/>
     </row>
     <row r="506">
-      <c r="C506" s="7"/>
+      <c r="C506" s="18"/>
     </row>
     <row r="507">
-      <c r="C507" s="7"/>
+      <c r="C507" s="18"/>
     </row>
     <row r="508">
-      <c r="C508" s="7"/>
+      <c r="C508" s="18"/>
     </row>
     <row r="509">
-      <c r="C509" s="7"/>
+      <c r="C509" s="18"/>
     </row>
     <row r="510">
-      <c r="C510" s="7"/>
+      <c r="C510" s="18"/>
     </row>
     <row r="511">
-      <c r="C511" s="7"/>
+      <c r="C511" s="18"/>
     </row>
     <row r="512">
-      <c r="C512" s="7"/>
+      <c r="C512" s="18"/>
     </row>
     <row r="513">
-      <c r="C513" s="7"/>
+      <c r="C513" s="18"/>
     </row>
     <row r="514">
-      <c r="C514" s="7"/>
+      <c r="C514" s="18"/>
     </row>
     <row r="515">
-      <c r="C515" s="7"/>
+      <c r="C515" s="18"/>
     </row>
     <row r="516">
-      <c r="C516" s="7"/>
+      <c r="C516" s="18"/>
     </row>
     <row r="517">
-      <c r="C517" s="7"/>
+      <c r="C517" s="18"/>
     </row>
     <row r="518">
-      <c r="C518" s="7"/>
+      <c r="C518" s="18"/>
     </row>
     <row r="519">
-      <c r="C519" s="7"/>
+      <c r="C519" s="18"/>
     </row>
     <row r="520">
-      <c r="C520" s="7"/>
+      <c r="C520" s="18"/>
     </row>
     <row r="521">
-      <c r="C521" s="7"/>
+      <c r="C521" s="18"/>
     </row>
     <row r="522">
-      <c r="C522" s="7"/>
+      <c r="C522" s="18"/>
     </row>
     <row r="523">
-      <c r="C523" s="7"/>
+      <c r="C523" s="18"/>
     </row>
     <row r="524">
-      <c r="C524" s="7"/>
+      <c r="C524" s="18"/>
     </row>
     <row r="525">
-      <c r="C525" s="7"/>
+      <c r="C525" s="18"/>
     </row>
     <row r="526">
-      <c r="C526" s="7"/>
+      <c r="C526" s="18"/>
     </row>
     <row r="527">
-      <c r="C527" s="7"/>
+      <c r="C527" s="18"/>
     </row>
     <row r="528">
-      <c r="C528" s="7"/>
+      <c r="C528" s="18"/>
     </row>
     <row r="529">
-      <c r="C529" s="7"/>
+      <c r="C529" s="18"/>
     </row>
     <row r="530">
-      <c r="C530" s="7"/>
+      <c r="C530" s="18"/>
     </row>
     <row r="531">
-      <c r="C531" s="7"/>
+      <c r="C531" s="18"/>
     </row>
     <row r="532">
-      <c r="C532" s="7"/>
+      <c r="C532" s="18"/>
     </row>
     <row r="533">
-      <c r="C533" s="7"/>
+      <c r="C533" s="18"/>
     </row>
     <row r="534">
-      <c r="C534" s="7"/>
+      <c r="C534" s="18"/>
     </row>
     <row r="535">
-      <c r="C535" s="7"/>
+      <c r="C535" s="18"/>
     </row>
     <row r="536">
-      <c r="C536" s="7"/>
+      <c r="C536" s="18"/>
     </row>
     <row r="537">
-      <c r="C537" s="7"/>
+      <c r="C537" s="18"/>
     </row>
     <row r="538">
-      <c r="C538" s="7"/>
+      <c r="C538" s="18"/>
     </row>
     <row r="539">
-      <c r="C539" s="7"/>
+      <c r="C539" s="18"/>
     </row>
     <row r="540">
-      <c r="C540" s="7"/>
+      <c r="C540" s="18"/>
     </row>
     <row r="541">
-      <c r="C541" s="7"/>
+      <c r="C541" s="18"/>
     </row>
     <row r="542">
-      <c r="C542" s="7"/>
+      <c r="C542" s="18"/>
     </row>
     <row r="543">
-      <c r="C543" s="7"/>
+      <c r="C543" s="18"/>
     </row>
     <row r="544">
-      <c r="C544" s="7"/>
+      <c r="C544" s="18"/>
     </row>
     <row r="545">
-      <c r="C545" s="7"/>
+      <c r="C545" s="18"/>
     </row>
     <row r="546">
-      <c r="C546" s="7"/>
+      <c r="C546" s="18"/>
     </row>
     <row r="547">
-      <c r="C547" s="7"/>
+      <c r="C547" s="18"/>
     </row>
     <row r="548">
-      <c r="C548" s="7"/>
+      <c r="C548" s="18"/>
     </row>
     <row r="549">
-      <c r="C549" s="7"/>
+      <c r="C549" s="18"/>
     </row>
     <row r="550">
-      <c r="C550" s="7"/>
+      <c r="C550" s="18"/>
     </row>
     <row r="551">
-      <c r="C551" s="7"/>
+      <c r="C551" s="18"/>
     </row>
     <row r="552">
-      <c r="C552" s="7"/>
+      <c r="C552" s="18"/>
     </row>
     <row r="553">
-      <c r="C553" s="7"/>
+      <c r="C553" s="18"/>
     </row>
     <row r="554">
-      <c r="C554" s="7"/>
+      <c r="C554" s="18"/>
     </row>
     <row r="555">
-      <c r="C555" s="7"/>
+      <c r="C555" s="18"/>
     </row>
     <row r="556">
-      <c r="C556" s="7"/>
+      <c r="C556" s="18"/>
     </row>
     <row r="557">
-      <c r="C557" s="7"/>
+      <c r="C557" s="18"/>
     </row>
     <row r="558">
-      <c r="C558" s="7"/>
+      <c r="C558" s="18"/>
     </row>
     <row r="559">
-      <c r="C559" s="7"/>
+      <c r="C559" s="18"/>
     </row>
     <row r="560">
-      <c r="C560" s="7"/>
+      <c r="C560" s="18"/>
     </row>
     <row r="561">
-      <c r="C561" s="7"/>
+      <c r="C561" s="18"/>
     </row>
     <row r="562">
-      <c r="C562" s="7"/>
+      <c r="C562" s="18"/>
     </row>
     <row r="563">
-      <c r="C563" s="7"/>
+      <c r="C563" s="18"/>
     </row>
     <row r="564">
-      <c r="C564" s="7"/>
+      <c r="C564" s="18"/>
     </row>
     <row r="565">
-      <c r="C565" s="7"/>
+      <c r="C565" s="18"/>
     </row>
     <row r="566">
-      <c r="C566" s="7"/>
+      <c r="C566" s="18"/>
     </row>
     <row r="567">
-      <c r="C567" s="7"/>
+      <c r="C567" s="18"/>
     </row>
     <row r="568">
-      <c r="C568" s="7"/>
+      <c r="C568" s="18"/>
     </row>
     <row r="569">
-      <c r="C569" s="7"/>
+      <c r="C569" s="18"/>
     </row>
     <row r="570">
-      <c r="C570" s="7"/>
+      <c r="C570" s="18"/>
     </row>
     <row r="571">
-      <c r="C571" s="7"/>
+      <c r="C571" s="18"/>
     </row>
     <row r="572">
-      <c r="C572" s="7"/>
+      <c r="C572" s="18"/>
     </row>
     <row r="573">
-      <c r="C573" s="7"/>
+      <c r="C573" s="18"/>
     </row>
     <row r="574">
-      <c r="C574" s="7"/>
+      <c r="C574" s="18"/>
     </row>
     <row r="575">
-      <c r="C575" s="7"/>
+      <c r="C575" s="18"/>
     </row>
     <row r="576">
-      <c r="C576" s="7"/>
+      <c r="C576" s="18"/>
     </row>
     <row r="577">
-      <c r="C577" s="7"/>
+      <c r="C577" s="18"/>
     </row>
     <row r="578">
-      <c r="C578" s="7"/>
+      <c r="C578" s="18"/>
     </row>
     <row r="579">
-      <c r="C579" s="7"/>
+      <c r="C579" s="18"/>
     </row>
     <row r="580">
-      <c r="C580" s="7"/>
+      <c r="C580" s="18"/>
     </row>
     <row r="581">
-      <c r="C581" s="7"/>
+      <c r="C581" s="18"/>
     </row>
     <row r="582">
-      <c r="C582" s="7"/>
+      <c r="C582" s="18"/>
     </row>
     <row r="583">
-      <c r="C583" s="7"/>
+      <c r="C583" s="18"/>
     </row>
     <row r="584">
-      <c r="C584" s="7"/>
+      <c r="C584" s="18"/>
     </row>
     <row r="585">
-      <c r="C585" s="7"/>
+      <c r="C585" s="18"/>
     </row>
     <row r="586">
-      <c r="C586" s="7"/>
+      <c r="C586" s="18"/>
     </row>
     <row r="587">
-      <c r="C587" s="7"/>
+      <c r="C587" s="18"/>
     </row>
     <row r="588">
-      <c r="C588" s="7"/>
+      <c r="C588" s="18"/>
     </row>
     <row r="589">
-      <c r="C589" s="7"/>
+      <c r="C589" s="18"/>
     </row>
     <row r="590">
-      <c r="C590" s="7"/>
+      <c r="C590" s="18"/>
     </row>
     <row r="591">
-      <c r="C591" s="7"/>
+      <c r="C591" s="18"/>
     </row>
     <row r="592">
-      <c r="C592" s="7"/>
+      <c r="C592" s="18"/>
     </row>
     <row r="593">
-      <c r="C593" s="7"/>
+      <c r="C593" s="18"/>
     </row>
     <row r="594">
-      <c r="C594" s="7"/>
+      <c r="C594" s="18"/>
     </row>
     <row r="595">
-      <c r="C595" s="7"/>
+      <c r="C595" s="18"/>
     </row>
     <row r="596">
-      <c r="C596" s="7"/>
+      <c r="C596" s="18"/>
     </row>
     <row r="597">
-      <c r="C597" s="7"/>
+      <c r="C597" s="18"/>
     </row>
     <row r="598">
-      <c r="C598" s="7"/>
+      <c r="C598" s="18"/>
     </row>
     <row r="599">
-      <c r="C599" s="7"/>
+      <c r="C599" s="18"/>
     </row>
     <row r="600">
-      <c r="C600" s="7"/>
+      <c r="C600" s="18"/>
     </row>
     <row r="601">
-      <c r="C601" s="7"/>
+      <c r="C601" s="18"/>
     </row>
     <row r="602">
-      <c r="C602" s="7"/>
+      <c r="C602" s="18"/>
     </row>
     <row r="603">
-      <c r="C603" s="7"/>
+      <c r="C603" s="18"/>
     </row>
     <row r="604">
-      <c r="C604" s="7"/>
+      <c r="C604" s="18"/>
     </row>
     <row r="605">
-      <c r="C605" s="7"/>
+      <c r="C605" s="18"/>
     </row>
     <row r="606">
-      <c r="C606" s="7"/>
+      <c r="C606" s="18"/>
     </row>
     <row r="607">
-      <c r="C607" s="7"/>
+      <c r="C607" s="18"/>
     </row>
     <row r="608">
-      <c r="C608" s="7"/>
+      <c r="C608" s="18"/>
     </row>
     <row r="609">
-      <c r="C609" s="7"/>
+      <c r="C609" s="18"/>
     </row>
     <row r="610">
-      <c r="C610" s="7"/>
+      <c r="C610" s="18"/>
     </row>
     <row r="611">
-      <c r="C611" s="7"/>
+      <c r="C611" s="18"/>
     </row>
     <row r="612">
-      <c r="C612" s="7"/>
+      <c r="C612" s="18"/>
     </row>
     <row r="613">
-      <c r="C613" s="7"/>
+      <c r="C613" s="18"/>
     </row>
     <row r="614">
-      <c r="C614" s="7"/>
+      <c r="C614" s="18"/>
     </row>
     <row r="615">
-      <c r="C615" s="7"/>
+      <c r="C615" s="18"/>
     </row>
     <row r="616">
-      <c r="C616" s="7"/>
+      <c r="C616" s="18"/>
     </row>
     <row r="617">
-      <c r="C617" s="7"/>
+      <c r="C617" s="18"/>
     </row>
     <row r="618">
-      <c r="C618" s="7"/>
+      <c r="C618" s="18"/>
     </row>
     <row r="619">
-      <c r="C619" s="7"/>
+      <c r="C619" s="18"/>
     </row>
     <row r="620">
-      <c r="C620" s="7"/>
+      <c r="C620" s="18"/>
     </row>
     <row r="621">
-      <c r="C621" s="7"/>
+      <c r="C621" s="18"/>
     </row>
     <row r="622">
-      <c r="C622" s="7"/>
+      <c r="C622" s="18"/>
     </row>
     <row r="623">
-      <c r="C623" s="7"/>
+      <c r="C623" s="18"/>
     </row>
     <row r="624">
-      <c r="C624" s="7"/>
+      <c r="C624" s="18"/>
     </row>
     <row r="625">
-      <c r="C625" s="7"/>
+      <c r="C625" s="18"/>
     </row>
     <row r="626">
-      <c r="C626" s="7"/>
+      <c r="C626" s="18"/>
     </row>
     <row r="627">
-      <c r="C627" s="7"/>
+      <c r="C627" s="18"/>
     </row>
     <row r="628">
-      <c r="C628" s="7"/>
+      <c r="C628" s="18"/>
     </row>
     <row r="629">
-      <c r="C629" s="7"/>
+      <c r="C629" s="18"/>
     </row>
     <row r="630">
-      <c r="C630" s="7"/>
+      <c r="C630" s="18"/>
     </row>
     <row r="631">
-      <c r="C631" s="7"/>
+      <c r="C631" s="18"/>
     </row>
     <row r="632">
-      <c r="C632" s="7"/>
+      <c r="C632" s="18"/>
     </row>
     <row r="633">
-      <c r="C633" s="7"/>
+      <c r="C633" s="18"/>
     </row>
     <row r="634">
-      <c r="C634" s="7"/>
+      <c r="C634" s="18"/>
     </row>
     <row r="635">
-      <c r="C635" s="7"/>
+      <c r="C635" s="18"/>
     </row>
     <row r="636">
-      <c r="C636" s="7"/>
+      <c r="C636" s="18"/>
     </row>
     <row r="637">
-      <c r="C637" s="7"/>
+      <c r="C637" s="18"/>
     </row>
     <row r="638">
-      <c r="C638" s="7"/>
+      <c r="C638" s="18"/>
     </row>
     <row r="639">
-      <c r="C639" s="7"/>
+      <c r="C639" s="18"/>
     </row>
     <row r="640">
-      <c r="C640" s="7"/>
+      <c r="C640" s="18"/>
     </row>
     <row r="641">
-      <c r="C641" s="7"/>
+      <c r="C641" s="18"/>
     </row>
     <row r="642">
-      <c r="C642" s="7"/>
+      <c r="C642" s="18"/>
     </row>
     <row r="643">
-      <c r="C643" s="7"/>
+      <c r="C643" s="18"/>
     </row>
     <row r="644">
-      <c r="C644" s="7"/>
+      <c r="C644" s="18"/>
     </row>
     <row r="645">
-      <c r="C645" s="7"/>
+      <c r="C645" s="18"/>
     </row>
     <row r="646">
-      <c r="C646" s="7"/>
+      <c r="C646" s="18"/>
     </row>
     <row r="647">
-      <c r="C647" s="7"/>
+      <c r="C647" s="18"/>
     </row>
     <row r="648">
-      <c r="C648" s="7"/>
+      <c r="C648" s="18"/>
     </row>
     <row r="649">
-      <c r="C649" s="7"/>
+      <c r="C649" s="18"/>
     </row>
     <row r="650">
-      <c r="C650" s="7"/>
+      <c r="C650" s="18"/>
     </row>
     <row r="651">
-      <c r="C651" s="7"/>
+      <c r="C651" s="18"/>
     </row>
     <row r="652">
-      <c r="C652" s="7"/>
+      <c r="C652" s="18"/>
     </row>
     <row r="653">
-      <c r="C653" s="7"/>
+      <c r="C653" s="18"/>
     </row>
     <row r="654">
-      <c r="C654" s="7"/>
+      <c r="C654" s="18"/>
     </row>
     <row r="655">
-      <c r="C655" s="7"/>
+      <c r="C655" s="18"/>
     </row>
     <row r="656">
-      <c r="C656" s="7"/>
+      <c r="C656" s="18"/>
     </row>
     <row r="657">
-      <c r="C657" s="7"/>
+      <c r="C657" s="18"/>
     </row>
     <row r="658">
-      <c r="C658" s="7"/>
+      <c r="C658" s="18"/>
     </row>
     <row r="659">
-      <c r="C659" s="7"/>
+      <c r="C659" s="18"/>
     </row>
     <row r="660">
-      <c r="C660" s="7"/>
+      <c r="C660" s="18"/>
     </row>
     <row r="661">
-      <c r="C661" s="7"/>
+      <c r="C661" s="18"/>
     </row>
     <row r="662">
-      <c r="C662" s="7"/>
+      <c r="C662" s="18"/>
     </row>
     <row r="663">
-      <c r="C663" s="7"/>
+      <c r="C663" s="18"/>
     </row>
     <row r="664">
-      <c r="C664" s="7"/>
+      <c r="C664" s="18"/>
     </row>
     <row r="665">
-      <c r="C665" s="7"/>
+      <c r="C665" s="18"/>
     </row>
     <row r="666">
-      <c r="C666" s="7"/>
+      <c r="C666" s="18"/>
     </row>
     <row r="667">
-      <c r="C667" s="7"/>
+      <c r="C667" s="18"/>
     </row>
     <row r="668">
-      <c r="C668" s="7"/>
+      <c r="C668" s="18"/>
     </row>
     <row r="669">
-      <c r="C669" s="7"/>
+      <c r="C669" s="18"/>
     </row>
     <row r="670">
-      <c r="C670" s="7"/>
+      <c r="C670" s="18"/>
     </row>
     <row r="671">
-      <c r="C671" s="7"/>
+      <c r="C671" s="18"/>
     </row>
     <row r="672">
-      <c r="C672" s="7"/>
+      <c r="C672" s="18"/>
     </row>
     <row r="673">
-      <c r="C673" s="7"/>
+      <c r="C673" s="18"/>
     </row>
     <row r="674">
-      <c r="C674" s="7"/>
+      <c r="C674" s="18"/>
     </row>
     <row r="675">
-      <c r="C675" s="7"/>
+      <c r="C675" s="18"/>
     </row>
     <row r="676">
-      <c r="C676" s="7"/>
+      <c r="C676" s="18"/>
     </row>
     <row r="677">
-      <c r="C677" s="7"/>
+      <c r="C677" s="18"/>
     </row>
     <row r="678">
-      <c r="C678" s="7"/>
+      <c r="C678" s="18"/>
     </row>
     <row r="679">
-      <c r="C679" s="7"/>
+      <c r="C679" s="18"/>
     </row>
     <row r="680">
-      <c r="C680" s="7"/>
+      <c r="C680" s="18"/>
     </row>
     <row r="681">
-      <c r="C681" s="7"/>
+      <c r="C681" s="18"/>
     </row>
     <row r="682">
-      <c r="C682" s="7"/>
+      <c r="C682" s="18"/>
     </row>
     <row r="683">
-      <c r="C683" s="7"/>
+      <c r="C683" s="18"/>
     </row>
     <row r="684">
-      <c r="C684" s="7"/>
+      <c r="C684" s="18"/>
     </row>
     <row r="685">
-      <c r="C685" s="7"/>
+      <c r="C685" s="18"/>
     </row>
     <row r="686">
-      <c r="C686" s="7"/>
+      <c r="C686" s="18"/>
     </row>
     <row r="687">
-      <c r="C687" s="7"/>
+      <c r="C687" s="18"/>
     </row>
     <row r="688">
-      <c r="C688" s="7"/>
+      <c r="C688" s="18"/>
     </row>
     <row r="689">
-      <c r="C689" s="7"/>
+      <c r="C689" s="18"/>
     </row>
     <row r="690">
-      <c r="C690" s="7"/>
+      <c r="C690" s="18"/>
     </row>
     <row r="691">
-      <c r="C691" s="7"/>
+      <c r="C691" s="18"/>
     </row>
     <row r="692">
-      <c r="C692" s="7"/>
+      <c r="C692" s="18"/>
     </row>
     <row r="693">
-      <c r="C693" s="7"/>
+      <c r="C693" s="18"/>
     </row>
     <row r="694">
-      <c r="C694" s="7"/>
+      <c r="C694" s="18"/>
     </row>
     <row r="695">
-      <c r="C695" s="7"/>
+      <c r="C695" s="18"/>
     </row>
     <row r="696">
-      <c r="C696" s="7"/>
+      <c r="C696" s="18"/>
     </row>
     <row r="697">
-      <c r="C697" s="7"/>
+      <c r="C697" s="18"/>
     </row>
     <row r="698">
-      <c r="C698" s="7"/>
+      <c r="C698" s="18"/>
     </row>
     <row r="699">
-      <c r="C699" s="7"/>
+      <c r="C699" s="18"/>
     </row>
     <row r="700">
-      <c r="C700" s="7"/>
+      <c r="C700" s="18"/>
     </row>
     <row r="701">
-      <c r="C701" s="7"/>
+      <c r="C701" s="18"/>
     </row>
     <row r="702">
-      <c r="C702" s="7"/>
+      <c r="C702" s="18"/>
     </row>
     <row r="703">
-      <c r="C703" s="7"/>
+      <c r="C703" s="18"/>
     </row>
     <row r="704">
-      <c r="C704" s="7"/>
+      <c r="C704" s="18"/>
     </row>
     <row r="705">
-      <c r="C705" s="7"/>
+      <c r="C705" s="18"/>
     </row>
     <row r="706">
-      <c r="C706" s="7"/>
+      <c r="C706" s="18"/>
     </row>
     <row r="707">
-      <c r="C707" s="7"/>
+      <c r="C707" s="18"/>
     </row>
     <row r="708">
-      <c r="C708" s="7"/>
+      <c r="C708" s="18"/>
     </row>
     <row r="709">
-      <c r="C709" s="7"/>
+      <c r="C709" s="18"/>
     </row>
     <row r="710">
-      <c r="C710" s="7"/>
+      <c r="C710" s="18"/>
     </row>
     <row r="711">
-      <c r="C711" s="7"/>
+      <c r="C711" s="18"/>
     </row>
     <row r="712">
-      <c r="C712" s="7"/>
+      <c r="C712" s="18"/>
     </row>
     <row r="713">
-      <c r="C713" s="7"/>
+      <c r="C713" s="18"/>
     </row>
     <row r="714">
-      <c r="C714" s="7"/>
+      <c r="C714" s="18"/>
     </row>
     <row r="715">
-      <c r="C715" s="7"/>
+      <c r="C715" s="18"/>
     </row>
     <row r="716">
-      <c r="C716" s="7"/>
+      <c r="C716" s="18"/>
     </row>
     <row r="717">
-      <c r="C717" s="7"/>
+      <c r="C717" s="18"/>
     </row>
     <row r="718">
-      <c r="C718" s="7"/>
+      <c r="C718" s="18"/>
     </row>
     <row r="719">
-      <c r="C719" s="7"/>
+      <c r="C719" s="18"/>
     </row>
     <row r="720">
-      <c r="C720" s="7"/>
+      <c r="C720" s="18"/>
     </row>
     <row r="721">
-      <c r="C721" s="7"/>
+      <c r="C721" s="18"/>
     </row>
     <row r="722">
-      <c r="C722" s="7"/>
+      <c r="C722" s="18"/>
     </row>
     <row r="723">
-      <c r="C723" s="7"/>
+      <c r="C723" s="18"/>
     </row>
     <row r="724">
-      <c r="C724" s="7"/>
+      <c r="C724" s="18"/>
     </row>
     <row r="725">
-      <c r="C725" s="7"/>
+      <c r="C725" s="18"/>
     </row>
     <row r="726">
-      <c r="C726" s="7"/>
+      <c r="C726" s="18"/>
     </row>
     <row r="727">
-      <c r="C727" s="7"/>
+      <c r="C727" s="18"/>
     </row>
     <row r="728">
-      <c r="C728" s="7"/>
+      <c r="C728" s="18"/>
     </row>
     <row r="729">
-      <c r="C729" s="7"/>
+      <c r="C729" s="18"/>
     </row>
     <row r="730">
-      <c r="C730" s="7"/>
+      <c r="C730" s="18"/>
     </row>
     <row r="731">
-      <c r="C731" s="7"/>
+      <c r="C731" s="18"/>
     </row>
     <row r="732">
-      <c r="C732" s="7"/>
+      <c r="C732" s="18"/>
     </row>
     <row r="733">
-      <c r="C733" s="7"/>
+      <c r="C733" s="18"/>
     </row>
     <row r="734">
-      <c r="C734" s="7"/>
+      <c r="C734" s="18"/>
     </row>
     <row r="735">
-      <c r="C735" s="7"/>
+      <c r="C735" s="18"/>
     </row>
     <row r="736">
-      <c r="C736" s="7"/>
+      <c r="C736" s="18"/>
     </row>
     <row r="737">
-      <c r="C737" s="7"/>
+      <c r="C737" s="18"/>
     </row>
     <row r="738">
-      <c r="C738" s="7"/>
+      <c r="C738" s="18"/>
     </row>
     <row r="739">
-      <c r="C739" s="7"/>
+      <c r="C739" s="18"/>
     </row>
     <row r="740">
-      <c r="C740" s="7"/>
+      <c r="C740" s="18"/>
     </row>
     <row r="741">
-      <c r="C741" s="7"/>
+      <c r="C741" s="18"/>
     </row>
     <row r="742">
-      <c r="C742" s="7"/>
+      <c r="C742" s="18"/>
     </row>
     <row r="743">
-      <c r="C743" s="7"/>
+      <c r="C743" s="18"/>
     </row>
     <row r="744">
-      <c r="C744" s="7"/>
+      <c r="C744" s="18"/>
     </row>
     <row r="745">
-      <c r="C745" s="7"/>
+      <c r="C745" s="18"/>
     </row>
     <row r="746">
-      <c r="C746" s="7"/>
+      <c r="C746" s="18"/>
     </row>
     <row r="747">
-      <c r="C747" s="7"/>
+      <c r="C747" s="18"/>
     </row>
     <row r="748">
-      <c r="C748" s="7"/>
+      <c r="C748" s="18"/>
     </row>
     <row r="749">
-      <c r="C749" s="7"/>
+      <c r="C749" s="18"/>
     </row>
     <row r="750">
-      <c r="C750" s="7"/>
+      <c r="C750" s="18"/>
     </row>
     <row r="751">
-      <c r="C751" s="7"/>
+      <c r="C751" s="18"/>
     </row>
     <row r="752">
-      <c r="C752" s="7"/>
+      <c r="C752" s="18"/>
     </row>
     <row r="753">
-      <c r="C753" s="7"/>
+      <c r="C753" s="18"/>
     </row>
     <row r="754">
-      <c r="C754" s="7"/>
+      <c r="C754" s="18"/>
     </row>
     <row r="755">
-      <c r="C755" s="7"/>
+      <c r="C755" s="18"/>
     </row>
     <row r="756">
-      <c r="C756" s="7"/>
+      <c r="C756" s="18"/>
     </row>
     <row r="757">
-      <c r="C757" s="7"/>
+      <c r="C757" s="18"/>
     </row>
     <row r="758">
-      <c r="C758" s="7"/>
+      <c r="C758" s="18"/>
     </row>
     <row r="759">
-      <c r="C759" s="7"/>
+      <c r="C759" s="18"/>
     </row>
     <row r="760">
-      <c r="C760" s="7"/>
+      <c r="C760" s="18"/>
     </row>
     <row r="761">
-      <c r="C761" s="7"/>
+      <c r="C761" s="18"/>
     </row>
     <row r="762">
-      <c r="C762" s="7"/>
+      <c r="C762" s="18"/>
     </row>
     <row r="763">
-      <c r="C763" s="7"/>
+      <c r="C763" s="18"/>
     </row>
     <row r="764">
-      <c r="C764" s="7"/>
+      <c r="C764" s="18"/>
     </row>
     <row r="765">
-      <c r="C765" s="7"/>
+      <c r="C765" s="18"/>
     </row>
     <row r="766">
-      <c r="C766" s="7"/>
+      <c r="C766" s="18"/>
     </row>
     <row r="767">
-      <c r="C767" s="7"/>
+      <c r="C767" s="18"/>
     </row>
     <row r="768">
-      <c r="C768" s="7"/>
+      <c r="C768" s="18"/>
     </row>
     <row r="769">
-      <c r="C769" s="7"/>
+      <c r="C769" s="18"/>
     </row>
     <row r="770">
-      <c r="C770" s="7"/>
+      <c r="C770" s="18"/>
     </row>
     <row r="771">
-      <c r="C771" s="7"/>
+      <c r="C771" s="18"/>
     </row>
     <row r="772">
-      <c r="C772" s="7"/>
+      <c r="C772" s="18"/>
     </row>
     <row r="773">
-      <c r="C773" s="7"/>
+      <c r="C773" s="18"/>
     </row>
     <row r="774">
-      <c r="C774" s="7"/>
+      <c r="C774" s="18"/>
     </row>
     <row r="775">
-      <c r="C775" s="7"/>
+      <c r="C775" s="18"/>
     </row>
     <row r="776">
-      <c r="C776" s="7"/>
+      <c r="C776" s="18"/>
     </row>
     <row r="777">
-      <c r="C777" s="7"/>
+      <c r="C777" s="18"/>
     </row>
     <row r="778">
-      <c r="C778" s="7"/>
+      <c r="C778" s="18"/>
     </row>
     <row r="779">
-      <c r="C779" s="7"/>
+      <c r="C779" s="18"/>
     </row>
     <row r="780">
-      <c r="C780" s="7"/>
+      <c r="C780" s="18"/>
     </row>
     <row r="781">
-      <c r="C781" s="7"/>
+      <c r="C781" s="18"/>
     </row>
     <row r="782">
-      <c r="C782" s="7"/>
+      <c r="C782" s="18"/>
     </row>
     <row r="783">
-      <c r="C783" s="7"/>
+      <c r="C783" s="18"/>
     </row>
     <row r="784">
-      <c r="C784" s="7"/>
+      <c r="C784" s="18"/>
     </row>
     <row r="785">
-      <c r="C785" s="7"/>
+      <c r="C785" s="18"/>
     </row>
     <row r="786">
-      <c r="C786" s="7"/>
+      <c r="C786" s="18"/>
     </row>
     <row r="787">
-      <c r="C787" s="7"/>
+      <c r="C787" s="18"/>
     </row>
     <row r="788">
-      <c r="C788" s="7"/>
+      <c r="C788" s="18"/>
     </row>
     <row r="789">
-      <c r="C789" s="7"/>
+      <c r="C789" s="18"/>
     </row>
     <row r="790">
-      <c r="C790" s="7"/>
+      <c r="C790" s="18"/>
     </row>
     <row r="791">
-      <c r="C791" s="7"/>
+      <c r="C791" s="18"/>
     </row>
     <row r="792">
-      <c r="C792" s="7"/>
+      <c r="C792" s="18"/>
     </row>
     <row r="793">
-      <c r="C793" s="7"/>
+      <c r="C793" s="18"/>
     </row>
     <row r="794">
-      <c r="C794" s="7"/>
+      <c r="C794" s="18"/>
     </row>
     <row r="795">
-      <c r="C795" s="7"/>
+      <c r="C795" s="18"/>
     </row>
     <row r="796">
-      <c r="C796" s="7"/>
+      <c r="C796" s="18"/>
     </row>
     <row r="797">
-      <c r="C797" s="7"/>
+      <c r="C797" s="18"/>
     </row>
     <row r="798">
-      <c r="C798" s="7"/>
+      <c r="C798" s="18"/>
     </row>
     <row r="799">
-      <c r="C799" s="7"/>
+      <c r="C799" s="18"/>
     </row>
     <row r="800">
-      <c r="C800" s="7"/>
+      <c r="C800" s="18"/>
     </row>
     <row r="801">
-      <c r="C801" s="7"/>
+      <c r="C801" s="18"/>
     </row>
     <row r="802">
-      <c r="C802" s="7"/>
+      <c r="C802" s="18"/>
     </row>
     <row r="803">
-      <c r="C803" s="7"/>
+      <c r="C803" s="18"/>
     </row>
     <row r="804">
-      <c r="C804" s="7"/>
+      <c r="C804" s="18"/>
     </row>
     <row r="805">
-      <c r="C805" s="7"/>
+      <c r="C805" s="18"/>
     </row>
     <row r="806">
-      <c r="C806" s="7"/>
+      <c r="C806" s="18"/>
     </row>
     <row r="807">
-      <c r="C807" s="7"/>
+      <c r="C807" s="18"/>
     </row>
     <row r="808">
-      <c r="C808" s="7"/>
+      <c r="C808" s="18"/>
     </row>
     <row r="809">
-      <c r="C809" s="7"/>
+      <c r="C809" s="18"/>
     </row>
     <row r="810">
-      <c r="C810" s="7"/>
+      <c r="C810" s="18"/>
     </row>
     <row r="811">
-      <c r="C811" s="7"/>
+      <c r="C811" s="18"/>
     </row>
     <row r="812">
-      <c r="C812" s="7"/>
+      <c r="C812" s="18"/>
     </row>
     <row r="813">
-      <c r="C813" s="7"/>
+      <c r="C813" s="18"/>
     </row>
     <row r="814">
-      <c r="C814" s="7"/>
+      <c r="C814" s="18"/>
     </row>
     <row r="815">
-      <c r="C815" s="7"/>
+      <c r="C815" s="18"/>
     </row>
     <row r="816">
-      <c r="C816" s="7"/>
+      <c r="C816" s="18"/>
     </row>
     <row r="817">
-      <c r="C817" s="7"/>
+      <c r="C817" s="18"/>
     </row>
     <row r="818">
-      <c r="C818" s="7"/>
+      <c r="C818" s="18"/>
     </row>
     <row r="819">
-      <c r="C819" s="7"/>
+      <c r="C819" s="18"/>
     </row>
     <row r="820">
-      <c r="C820" s="7"/>
+      <c r="C820" s="18"/>
     </row>
     <row r="821">
-      <c r="C821" s="7"/>
+      <c r="C821" s="18"/>
     </row>
     <row r="822">
-      <c r="C822" s="7"/>
+      <c r="C822" s="18"/>
     </row>
     <row r="823">
-      <c r="C823" s="7"/>
+      <c r="C823" s="18"/>
     </row>
     <row r="824">
-      <c r="C824" s="7"/>
+      <c r="C824" s="18"/>
     </row>
     <row r="825">
-      <c r="C825" s="7"/>
+      <c r="C825" s="18"/>
     </row>
     <row r="826">
-      <c r="C826" s="7"/>
+      <c r="C826" s="18"/>
     </row>
     <row r="827">
-      <c r="C827" s="7"/>
+      <c r="C827" s="18"/>
     </row>
     <row r="828">
-      <c r="C828" s="7"/>
+      <c r="C828" s="18"/>
     </row>
     <row r="829">
-      <c r="C829" s="7"/>
+      <c r="C829" s="18"/>
     </row>
     <row r="830">
-      <c r="C830" s="7"/>
+      <c r="C830" s="18"/>
     </row>
     <row r="831">
-      <c r="C831" s="7"/>
+      <c r="C831" s="18"/>
     </row>
     <row r="832">
-      <c r="C832" s="7"/>
+      <c r="C832" s="18"/>
     </row>
     <row r="833">
-      <c r="C833" s="7"/>
+      <c r="C833" s="18"/>
     </row>
     <row r="834">
-      <c r="C834" s="7"/>
+      <c r="C834" s="18"/>
     </row>
     <row r="835">
-      <c r="C835" s="7"/>
+      <c r="C835" s="18"/>
     </row>
     <row r="836">
-      <c r="C836" s="7"/>
+      <c r="C836" s="18"/>
     </row>
     <row r="837">
-      <c r="C837" s="7"/>
+      <c r="C837" s="18"/>
     </row>
     <row r="838">
-      <c r="C838" s="7"/>
+      <c r="C838" s="18"/>
     </row>
     <row r="839">
-      <c r="C839" s="7"/>
+      <c r="C839" s="18"/>
     </row>
     <row r="840">
-      <c r="C840" s="7"/>
+      <c r="C840" s="18"/>
     </row>
     <row r="841">
-      <c r="C841" s="7"/>
+      <c r="C841" s="18"/>
     </row>
     <row r="842">
-      <c r="C842" s="7"/>
+      <c r="C842" s="18"/>
     </row>
     <row r="843">
-      <c r="C843" s="7"/>
+      <c r="C843" s="18"/>
     </row>
     <row r="844">
-      <c r="C844" s="7"/>
+      <c r="C844" s="18"/>
     </row>
     <row r="845">
-      <c r="C845" s="7"/>
+      <c r="C845" s="18"/>
     </row>
     <row r="846">
-      <c r="C846" s="7"/>
+      <c r="C846" s="18"/>
     </row>
     <row r="847">
-      <c r="C847" s="7"/>
+      <c r="C847" s="18"/>
     </row>
     <row r="848">
-      <c r="C848" s="7"/>
+      <c r="C848" s="18"/>
     </row>
     <row r="849">
-      <c r="C849" s="7"/>
+      <c r="C849" s="18"/>
     </row>
     <row r="850">
-      <c r="C850" s="7"/>
+      <c r="C850" s="18"/>
     </row>
     <row r="851">
-      <c r="C851" s="7"/>
+      <c r="C851" s="18"/>
     </row>
     <row r="852">
-      <c r="C852" s="7"/>
+      <c r="C852" s="18"/>
     </row>
     <row r="853">
-      <c r="C853" s="7"/>
+      <c r="C853" s="18"/>
     </row>
     <row r="854">
-      <c r="C854" s="7"/>
+      <c r="C854" s="18"/>
     </row>
     <row r="855">
-      <c r="C855" s="7"/>
+      <c r="C855" s="18"/>
     </row>
     <row r="856">
-      <c r="C856" s="7"/>
+      <c r="C856" s="18"/>
     </row>
     <row r="857">
-      <c r="C857" s="7"/>
+      <c r="C857" s="18"/>
     </row>
     <row r="858">
-      <c r="C858" s="7"/>
+      <c r="C858" s="18"/>
     </row>
     <row r="859">
-      <c r="C859" s="7"/>
+      <c r="C859" s="18"/>
     </row>
     <row r="860">
-      <c r="C860" s="7"/>
+      <c r="C860" s="18"/>
     </row>
     <row r="861">
-      <c r="C861" s="7"/>
+      <c r="C861" s="18"/>
     </row>
     <row r="862">
-      <c r="C862" s="7"/>
+      <c r="C862" s="18"/>
     </row>
     <row r="863">
-      <c r="C863" s="7"/>
+      <c r="C863" s="18"/>
     </row>
     <row r="864">
-      <c r="C864" s="7"/>
+      <c r="C864" s="18"/>
     </row>
     <row r="865">
-      <c r="C865" s="7"/>
+      <c r="C865" s="18"/>
     </row>
     <row r="866">
-      <c r="C866" s="7"/>
+      <c r="C866" s="18"/>
     </row>
     <row r="867">
-      <c r="C867" s="7"/>
+      <c r="C867" s="18"/>
     </row>
     <row r="868">
-      <c r="C868" s="7"/>
+      <c r="C868" s="18"/>
     </row>
     <row r="869">
-      <c r="C869" s="7"/>
+      <c r="C869" s="18"/>
     </row>
     <row r="870">
-      <c r="C870" s="7"/>
+      <c r="C870" s="18"/>
     </row>
     <row r="871">
-      <c r="C871" s="7"/>
+      <c r="C871" s="18"/>
     </row>
     <row r="872">
-      <c r="C872" s="7"/>
+      <c r="C872" s="18"/>
     </row>
     <row r="873">
-      <c r="C873" s="7"/>
+      <c r="C873" s="18"/>
     </row>
     <row r="874">
-      <c r="C874" s="7"/>
+      <c r="C874" s="18"/>
     </row>
     <row r="875">
-      <c r="C875" s="7"/>
+      <c r="C875" s="18"/>
     </row>
     <row r="876">
-      <c r="C876" s="7"/>
+      <c r="C876" s="18"/>
     </row>
     <row r="877">
-      <c r="C877" s="7"/>
+      <c r="C877" s="18"/>
     </row>
     <row r="878">
-      <c r="C878" s="7"/>
+      <c r="C878" s="18"/>
     </row>
     <row r="879">
-      <c r="C879" s="7"/>
+      <c r="C879" s="18"/>
     </row>
     <row r="880">
-      <c r="C880" s="7"/>
+      <c r="C880" s="18"/>
     </row>
     <row r="881">
-      <c r="C881" s="7"/>
+      <c r="C881" s="18"/>
     </row>
     <row r="882">
-      <c r="C882" s="7"/>
+      <c r="C882" s="18"/>
     </row>
     <row r="883">
-      <c r="C883" s="7"/>
+      <c r="C883" s="18"/>
     </row>
     <row r="884">
-      <c r="C884" s="7"/>
+      <c r="C884" s="18"/>
     </row>
     <row r="885">
-      <c r="C885" s="7"/>
+      <c r="C885" s="18"/>
     </row>
     <row r="886">
-      <c r="C886" s="7"/>
+      <c r="C886" s="18"/>
     </row>
     <row r="887">
-      <c r="C887" s="7"/>
+      <c r="C887" s="18"/>
     </row>
     <row r="888">
-      <c r="C888" s="7"/>
+      <c r="C888" s="18"/>
     </row>
     <row r="889">
-      <c r="C889" s="7"/>
+      <c r="C889" s="18"/>
     </row>
     <row r="890">
-      <c r="C890" s="7"/>
+      <c r="C890" s="18"/>
     </row>
     <row r="891">
-      <c r="C891" s="7"/>
+      <c r="C891" s="18"/>
     </row>
     <row r="892">
-      <c r="C892" s="7"/>
+      <c r="C892" s="18"/>
     </row>
     <row r="893">
-      <c r="C893" s="7"/>
+      <c r="C893" s="18"/>
     </row>
     <row r="894">
-      <c r="C894" s="7"/>
+      <c r="C894" s="18"/>
     </row>
     <row r="895">
-      <c r="C895" s="7"/>
+      <c r="C895" s="18"/>
     </row>
     <row r="896">
-      <c r="C896" s="7"/>
+      <c r="C896" s="18"/>
     </row>
     <row r="897">
-      <c r="C897" s="7"/>
+      <c r="C897" s="18"/>
     </row>
     <row r="898">
-      <c r="C898" s="7"/>
+      <c r="C898" s="18"/>
     </row>
     <row r="899">
-      <c r="C899" s="7"/>
+      <c r="C899" s="18"/>
     </row>
     <row r="900">
-      <c r="C900" s="7"/>
+      <c r="C900" s="18"/>
     </row>
     <row r="901">
-      <c r="C901" s="7"/>
+      <c r="C901" s="18"/>
     </row>
     <row r="902">
-      <c r="C902" s="7"/>
+      <c r="C902" s="18"/>
     </row>
     <row r="903">
-      <c r="C903" s="7"/>
+      <c r="C903" s="18"/>
     </row>
     <row r="904">
-      <c r="C904" s="7"/>
+      <c r="C904" s="18"/>
     </row>
     <row r="905">
-      <c r="C905" s="7"/>
+      <c r="C905" s="18"/>
     </row>
     <row r="906">
-      <c r="C906" s="7"/>
+      <c r="C906" s="18"/>
     </row>
     <row r="907">
-      <c r="C907" s="7"/>
+      <c r="C907" s="18"/>
     </row>
     <row r="908">
-      <c r="C908" s="7"/>
+      <c r="C908" s="18"/>
     </row>
     <row r="909">
-      <c r="C909" s="7"/>
+      <c r="C909" s="18"/>
     </row>
     <row r="910">
-      <c r="C910" s="7"/>
+      <c r="C910" s="18"/>
     </row>
     <row r="911">
-      <c r="C911" s="7"/>
+      <c r="C911" s="18"/>
     </row>
     <row r="912">
-      <c r="C912" s="7"/>
+      <c r="C912" s="18"/>
     </row>
     <row r="913">
-      <c r="C913" s="7"/>
+      <c r="C913" s="18"/>
     </row>
     <row r="914">
-      <c r="C914" s="7"/>
+      <c r="C914" s="18"/>
     </row>
     <row r="915">
-      <c r="C915" s="7"/>
+      <c r="C915" s="18"/>
     </row>
     <row r="916">
-      <c r="C916" s="7"/>
+      <c r="C916" s="18"/>
     </row>
     <row r="917">
-      <c r="C917" s="7"/>
+      <c r="C917" s="18"/>
     </row>
     <row r="918">
-      <c r="C918" s="7"/>
+      <c r="C918" s="18"/>
     </row>
     <row r="919">
-      <c r="C919" s="7"/>
+      <c r="C919" s="18"/>
     </row>
     <row r="920">
-      <c r="C920" s="7"/>
+      <c r="C920" s="18"/>
     </row>
     <row r="921">
-      <c r="C921" s="7"/>
+      <c r="C921" s="18"/>
     </row>
     <row r="922">
-      <c r="C922" s="7"/>
+      <c r="C922" s="18"/>
     </row>
     <row r="923">
-      <c r="C923" s="7"/>
+      <c r="C923" s="18"/>
     </row>
     <row r="924">
-      <c r="C924" s="7"/>
+      <c r="C924" s="18"/>
     </row>
     <row r="925">
-      <c r="C925" s="7"/>
+      <c r="C925" s="18"/>
     </row>
     <row r="926">
-      <c r="C926" s="7"/>
+      <c r="C926" s="18"/>
     </row>
     <row r="927">
-      <c r="C927" s="7"/>
+      <c r="C927" s="18"/>
     </row>
     <row r="928">
-      <c r="C928" s="7"/>
+      <c r="C928" s="18"/>
     </row>
     <row r="929">
-      <c r="C929" s="7"/>
+      <c r="C929" s="18"/>
     </row>
     <row r="930">
-      <c r="C930" s="7"/>
+      <c r="C930" s="18"/>
     </row>
     <row r="931">
-      <c r="C931" s="7"/>
+      <c r="C931" s="18"/>
     </row>
     <row r="932">
-      <c r="C932" s="7"/>
+      <c r="C932" s="18"/>
     </row>
     <row r="933">
-      <c r="C933" s="7"/>
+      <c r="C933" s="18"/>
     </row>
     <row r="934">
-      <c r="C934" s="7"/>
+      <c r="C934" s="18"/>
     </row>
     <row r="935">
-      <c r="C935" s="7"/>
+      <c r="C935" s="18"/>
     </row>
     <row r="936">
-      <c r="C936" s="7"/>
+      <c r="C936" s="18"/>
     </row>
     <row r="937">
-      <c r="C937" s="7"/>
+      <c r="C937" s="18"/>
     </row>
     <row r="938">
-      <c r="C938" s="7"/>
+      <c r="C938" s="18"/>
     </row>
     <row r="939">
-      <c r="C939" s="7"/>
+      <c r="C939" s="18"/>
     </row>
     <row r="940">
-      <c r="C940" s="7"/>
+      <c r="C940" s="18"/>
     </row>
     <row r="941">
-      <c r="C941" s="7"/>
+      <c r="C941" s="18"/>
     </row>
     <row r="942">
-      <c r="C942" s="7"/>
+      <c r="C942" s="18"/>
     </row>
     <row r="943">
-      <c r="C943" s="7"/>
+      <c r="C943" s="18"/>
     </row>
     <row r="944">
-      <c r="C944" s="7"/>
+      <c r="C944" s="18"/>
     </row>
     <row r="945">
-      <c r="C945" s="7"/>
+      <c r="C945" s="18"/>
     </row>
     <row r="946">
-      <c r="C946" s="7"/>
+      <c r="C946" s="18"/>
     </row>
     <row r="947">
-      <c r="C947" s="7"/>
+      <c r="C947" s="18"/>
     </row>
     <row r="948">
-      <c r="C948" s="7"/>
+      <c r="C948" s="18"/>
     </row>
     <row r="949">
-      <c r="C949" s="7"/>
+      <c r="C949" s="18"/>
     </row>
     <row r="950">
-      <c r="C950" s="7"/>
+      <c r="C950" s="18"/>
     </row>
     <row r="951">
-      <c r="C951" s="7"/>
+      <c r="C951" s="18"/>
     </row>
     <row r="952">
-      <c r="C952" s="7"/>
+      <c r="C952" s="18"/>
     </row>
     <row r="953">
-      <c r="C953" s="7"/>
+      <c r="C953" s="18"/>
     </row>
     <row r="954">
-      <c r="C954" s="7"/>
+      <c r="C954" s="18"/>
     </row>
     <row r="955">
-      <c r="C955" s="7"/>
+      <c r="C955" s="18"/>
     </row>
     <row r="956">
-      <c r="C956" s="7"/>
+      <c r="C956" s="18"/>
     </row>
     <row r="957">
-      <c r="C957" s="7"/>
+      <c r="C957" s="18"/>
     </row>
     <row r="958">
-      <c r="C958" s="7"/>
+      <c r="C958" s="18"/>
     </row>
     <row r="959">
-      <c r="C959" s="7"/>
+      <c r="C959" s="18"/>
     </row>
     <row r="960">
-      <c r="C960" s="7"/>
+      <c r="C960" s="18"/>
     </row>
     <row r="961">
-      <c r="C961" s="7"/>
+      <c r="C961" s="18"/>
     </row>
     <row r="962">
-      <c r="C962" s="7"/>
+      <c r="C962" s="18"/>
     </row>
     <row r="963">
-      <c r="C963" s="7"/>
+      <c r="C963" s="18"/>
     </row>
     <row r="964">
-      <c r="C964" s="7"/>
+      <c r="C964" s="18"/>
     </row>
     <row r="965">
-      <c r="C965" s="7"/>
+      <c r="C965" s="18"/>
     </row>
     <row r="966">
-      <c r="C966" s="7"/>
+      <c r="C966" s="18"/>
     </row>
     <row r="967">
-      <c r="C967" s="7"/>
+      <c r="C967" s="18"/>
     </row>
     <row r="968">
-      <c r="C968" s="7"/>
+      <c r="C968" s="18"/>
     </row>
     <row r="969">
-      <c r="C969" s="7"/>
+      <c r="C969" s="18"/>
     </row>
     <row r="970">
-      <c r="C970" s="7"/>
+      <c r="C970" s="18"/>
     </row>
     <row r="971">
-      <c r="C971" s="7"/>
+      <c r="C971" s="18"/>
     </row>
     <row r="972">
-      <c r="C972" s="7"/>
+      <c r="C972" s="18"/>
     </row>
     <row r="973">
-      <c r="C973" s="7"/>
+      <c r="C973" s="18"/>
     </row>
     <row r="974">
-      <c r="C974" s="7"/>
+      <c r="C974" s="18"/>
     </row>
     <row r="975">
-      <c r="C975" s="7"/>
+      <c r="C975" s="18"/>
     </row>
     <row r="976">
-      <c r="C976" s="7"/>
+      <c r="C976" s="18"/>
     </row>
     <row r="977">
-      <c r="C977" s="7"/>
+      <c r="C977" s="18"/>
     </row>
     <row r="978">
-      <c r="C978" s="7"/>
+      <c r="C978" s="18"/>
     </row>
     <row r="979">
-      <c r="C979" s="7"/>
+      <c r="C979" s="18"/>
     </row>
     <row r="980">
-      <c r="C980" s="7"/>
+      <c r="C980" s="18"/>
     </row>
     <row r="981">
-      <c r="C981" s="7"/>
+      <c r="C981" s="18"/>
     </row>
     <row r="982">
-      <c r="C982" s="7"/>
+      <c r="C982" s="18"/>
     </row>
     <row r="983">
-      <c r="C983" s="7"/>
+      <c r="C983" s="18"/>
     </row>
     <row r="984">
-      <c r="C984" s="7"/>
+      <c r="C984" s="18"/>
     </row>
     <row r="985">
-      <c r="C985" s="7"/>
+      <c r="C985" s="18"/>
     </row>
     <row r="986">
-      <c r="C986" s="7"/>
+      <c r="C986" s="18"/>
     </row>
     <row r="987">
-      <c r="C987" s="7"/>
+      <c r="C987" s="18"/>
     </row>
     <row r="988">
-      <c r="C988" s="7"/>
+      <c r="C988" s="18"/>
     </row>
     <row r="989">
-      <c r="C989" s="7"/>
+      <c r="C989" s="18"/>
     </row>
     <row r="990">
-      <c r="C990" s="7"/>
+      <c r="C990" s="18"/>
     </row>
     <row r="991">
-      <c r="C991" s="7"/>
+      <c r="C991" s="18"/>
     </row>
     <row r="992">
-      <c r="C992" s="7"/>
+      <c r="C992" s="18"/>
     </row>
     <row r="993">
-      <c r="C993" s="7"/>
+      <c r="C993" s="18"/>
     </row>
     <row r="994">
-      <c r="C994" s="7"/>
+      <c r="C994" s="18"/>
     </row>
     <row r="995">
-      <c r="C995" s="7"/>
+      <c r="C995" s="18"/>
     </row>
     <row r="996">
-      <c r="C996" s="7"/>
+      <c r="C996" s="18"/>
     </row>
     <row r="997">
-      <c r="C997" s="7"/>
+      <c r="C997" s="18"/>
     </row>
     <row r="998">
-      <c r="C998" s="7"/>
+      <c r="C998" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
